--- a/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_6.xlsx
+++ b/TspuWebPortal/Development/unsafe_uploads/DC1_Rack_6.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2780" uniqueCount="878">
   <si>
     <t>Серийный номер</t>
   </si>
@@ -762,9 +762,6 @@
   </si>
   <si>
     <t>UG-TLR Модуль оптический (10Gb, SM, 10km, 1310nm, LC, DDM)</t>
-  </si>
-  <si>
-    <t>QSFP+ 40 Гбит/с, 2 км, 1270/1290/1310/1330 нм, SMF, LC</t>
   </si>
   <si>
     <t>Коммутатор Huawei CE8850-32CQ-EI Switch (32-Port 100GE QSFP28,2-Port 10GE SFP+,2*AC Power Module, 2FAN, Box Port-side Exhaust)</t>
@@ -2610,21 +2607,12 @@
     <t>Маркировка АСБИ</t>
   </si>
   <si>
-    <t>102710</t>
-  </si>
-  <si>
     <t>номер 102710</t>
   </si>
   <si>
-    <t>102272</t>
-  </si>
-  <si>
     <t>Состоит из двух модулей. Модуль №2 номер 102272.</t>
   </si>
   <si>
-    <t>100714</t>
-  </si>
-  <si>
     <t>Состоит из двух модулей. Модуль №2 номер 100714.</t>
   </si>
   <si>
@@ -2656,6 +2644,24 @@
   </si>
   <si>
     <t>АПКШ Континент / (КК2)</t>
+  </si>
+  <si>
+    <t>IPC3000F. КС3.</t>
+  </si>
+  <si>
+    <t>UserGate F8000</t>
+  </si>
+  <si>
+    <t>UG-NCS410</t>
+  </si>
+  <si>
+    <t>UG-TLR</t>
+  </si>
+  <si>
+    <t>Трансивер 40GBASE-LR4 (QSFP+ 40 Гбит/с, 2 км, 1270/1290/1310/1330 нм, SMF, LC)</t>
+  </si>
+  <si>
+    <t>UG-NCS</t>
   </si>
 </sst>
 </file>
@@ -2743,9 +2749,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
@@ -3031,8 +3051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" topLeftCell="A247" workbookViewId="0">
+      <selection activeCell="C278" sqref="C278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3060,10 +3080,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>858</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>859</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>3</v>
@@ -3098,31 +3118,31 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>860</v>
+      <c r="D2" s="3" t="s">
+        <v>872</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>875</v>
+        <v>871</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J2" s="2">
         <v>1</v>
@@ -3137,7 +3157,7 @@
         <v>19</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>23</v>
@@ -3145,10 +3165,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>27</v>
@@ -3160,7 +3180,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>29</v>
@@ -3178,7 +3198,7 @@
         <v>19</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O3" s="2" t="s">
         <v>23</v>
@@ -3186,10 +3206,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>27</v>
@@ -3201,7 +3221,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>30</v>
@@ -3219,7 +3239,7 @@
         <v>19</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O4" s="2" t="s">
         <v>23</v>
@@ -3227,10 +3247,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>277</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>278</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>27</v>
@@ -3242,7 +3262,7 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>31</v>
@@ -3260,7 +3280,7 @@
         <v>19</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O5" s="2" t="s">
         <v>23</v>
@@ -3268,10 +3288,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>27</v>
@@ -3283,7 +3303,7 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>32</v>
@@ -3301,7 +3321,7 @@
         <v>19</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O6" s="2" t="s">
         <v>23</v>
@@ -3309,10 +3329,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>282</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>33</v>
@@ -3324,7 +3344,7 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>35</v>
@@ -3342,7 +3362,7 @@
         <v>19</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O7" s="2" t="s">
         <v>23</v>
@@ -3350,10 +3370,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>33</v>
@@ -3365,7 +3385,7 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I8" s="2" t="s">
         <v>36</v>
@@ -3383,7 +3403,7 @@
         <v>19</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O8" s="2" t="s">
         <v>23</v>
@@ -3391,10 +3411,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>33</v>
@@ -3406,7 +3426,7 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I9" s="2" t="s">
         <v>39</v>
@@ -3424,7 +3444,7 @@
         <v>19</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O9" s="2" t="s">
         <v>23</v>
@@ -3432,10 +3452,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>287</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>288</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>33</v>
@@ -3447,7 +3467,7 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>40</v>
@@ -3465,7 +3485,7 @@
         <v>19</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O10" s="2" t="s">
         <v>23</v>
@@ -3473,10 +3493,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>289</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>290</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>33</v>
@@ -3488,7 +3508,7 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>41</v>
@@ -3506,7 +3526,7 @@
         <v>19</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O11" s="2" t="s">
         <v>23</v>
@@ -3514,10 +3534,10 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>291</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>292</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>33</v>
@@ -3529,7 +3549,7 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>42</v>
@@ -3547,7 +3567,7 @@
         <v>19</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O12" s="2" t="s">
         <v>23</v>
@@ -3555,10 +3575,10 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>294</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>33</v>
@@ -3570,7 +3590,7 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>43</v>
@@ -3588,7 +3608,7 @@
         <v>19</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O13" s="2" t="s">
         <v>23</v>
@@ -3596,10 +3616,10 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>295</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>296</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>33</v>
@@ -3611,7 +3631,7 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>44</v>
@@ -3629,7 +3649,7 @@
         <v>19</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O14" s="2" t="s">
         <v>23</v>
@@ -3637,31 +3657,31 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>297</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>298</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>862</v>
+      <c r="D15" s="4" t="s">
+        <v>872</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>874</v>
+        <v>870</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J15" s="2">
         <v>0</v>
@@ -3676,7 +3696,7 @@
         <v>19</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O15" s="2" t="s">
         <v>23</v>
@@ -3684,10 +3704,10 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>27</v>
@@ -3699,7 +3719,7 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I16" s="2" t="s">
         <v>29</v>
@@ -3717,7 +3737,7 @@
         <v>19</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O16" s="2" t="s">
         <v>23</v>
@@ -3725,10 +3745,10 @@
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>27</v>
@@ -3740,7 +3760,7 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I17" s="2" t="s">
         <v>30</v>
@@ -3758,7 +3778,7 @@
         <v>19</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O17" s="2" t="s">
         <v>23</v>
@@ -3766,10 +3786,10 @@
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>27</v>
@@ -3781,7 +3801,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>31</v>
@@ -3799,7 +3819,7 @@
         <v>19</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O18" s="2" t="s">
         <v>23</v>
@@ -3807,10 +3827,10 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>27</v>
@@ -3822,7 +3842,7 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I19" s="2" t="s">
         <v>32</v>
@@ -3840,7 +3860,7 @@
         <v>19</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>23</v>
@@ -3848,10 +3868,10 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>308</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>33</v>
@@ -3863,7 +3883,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>35</v>
@@ -3881,7 +3901,7 @@
         <v>19</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O20" s="2" t="s">
         <v>23</v>
@@ -3889,10 +3909,10 @@
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>309</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>310</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>33</v>
@@ -3904,7 +3924,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>36</v>
@@ -3922,7 +3942,7 @@
         <v>19</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O21" s="2" t="s">
         <v>23</v>
@@ -3930,10 +3950,10 @@
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>312</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>33</v>
@@ -3945,7 +3965,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>39</v>
@@ -3963,7 +3983,7 @@
         <v>19</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O22" s="2" t="s">
         <v>23</v>
@@ -3971,10 +3991,10 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>313</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>33</v>
@@ -3986,7 +4006,7 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I23" s="2" t="s">
         <v>40</v>
@@ -4004,7 +4024,7 @@
         <v>19</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O23" s="2" t="s">
         <v>23</v>
@@ -4012,31 +4032,31 @@
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>315</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>316</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="2" t="s">
-        <v>864</v>
+      <c r="D24" s="5" t="s">
+        <v>872</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>865</v>
+        <v>861</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J24" s="2">
         <v>0</v>
@@ -4051,7 +4071,7 @@
         <v>19</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O24" s="2" t="s">
         <v>23</v>
@@ -4059,10 +4079,10 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>318</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>319</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>27</v>
@@ -4074,7 +4094,7 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I25" s="2" t="s">
         <v>29</v>
@@ -4092,7 +4112,7 @@
         <v>19</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O25" s="2" t="s">
         <v>23</v>
@@ -4100,10 +4120,10 @@
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>320</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>321</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>27</v>
@@ -4115,7 +4135,7 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I26" s="2" t="s">
         <v>30</v>
@@ -4133,7 +4153,7 @@
         <v>19</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O26" s="2" t="s">
         <v>23</v>
@@ -4141,10 +4161,10 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>322</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>323</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>27</v>
@@ -4156,7 +4176,7 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>31</v>
@@ -4174,7 +4194,7 @@
         <v>19</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O27" s="2" t="s">
         <v>23</v>
@@ -4182,10 +4202,10 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>324</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>325</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
@@ -4197,7 +4217,7 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>32</v>
@@ -4215,7 +4235,7 @@
         <v>19</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O28" s="2" t="s">
         <v>23</v>
@@ -4223,10 +4243,10 @@
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>326</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>327</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>33</v>
@@ -4238,7 +4258,7 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I29" s="2" t="s">
         <v>35</v>
@@ -4256,7 +4276,7 @@
         <v>19</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>23</v>
@@ -4264,10 +4284,10 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>329</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>33</v>
@@ -4279,7 +4299,7 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I30" s="2" t="s">
         <v>36</v>
@@ -4297,7 +4317,7 @@
         <v>19</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>23</v>
@@ -4305,10 +4325,10 @@
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>330</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>331</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>33</v>
@@ -4320,7 +4340,7 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I31" s="2" t="s">
         <v>39</v>
@@ -4338,7 +4358,7 @@
         <v>19</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O31" s="2" t="s">
         <v>23</v>
@@ -4346,10 +4366,10 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>332</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>333</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>33</v>
@@ -4361,7 +4381,7 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I32" s="2" t="s">
         <v>40</v>
@@ -4379,7 +4399,7 @@
         <v>19</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O32" s="2" t="s">
         <v>23</v>
@@ -4387,10 +4407,10 @@
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>334</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>335</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>33</v>
@@ -4402,7 +4422,7 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I33" s="2" t="s">
         <v>41</v>
@@ -4420,7 +4440,7 @@
         <v>19</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O33" s="2" t="s">
         <v>23</v>
@@ -4428,10 +4448,10 @@
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>336</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>337</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>33</v>
@@ -4443,7 +4463,7 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I34" s="2" t="s">
         <v>42</v>
@@ -4461,7 +4481,7 @@
         <v>19</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O34" s="2" t="s">
         <v>23</v>
@@ -4469,10 +4489,10 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>338</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>339</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>33</v>
@@ -4484,7 +4504,7 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>43</v>
@@ -4502,7 +4522,7 @@
         <v>19</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O35" s="2" t="s">
         <v>23</v>
@@ -4510,10 +4530,10 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>340</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>341</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>33</v>
@@ -4525,7 +4545,7 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>44</v>
@@ -4543,7 +4563,7 @@
         <v>19</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O36" s="2" t="s">
         <v>23</v>
@@ -4551,10 +4571,10 @@
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>342</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>343</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>45</v>
@@ -4563,19 +4583,19 @@
         <v>46</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J37" s="2">
         <v>1</v>
@@ -4590,7 +4610,7 @@
         <v>19</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O37" s="2" t="s">
         <v>23</v>
@@ -4598,10 +4618,10 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>346</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>47</v>
@@ -4615,7 +4635,7 @@
         <v>50</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2">
@@ -4631,7 +4651,7 @@
         <v>19</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O38" s="2" t="s">
         <v>23</v>
@@ -4639,10 +4659,10 @@
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>348</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>47</v>
@@ -4656,7 +4676,7 @@
         <v>50</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2">
@@ -4672,7 +4692,7 @@
         <v>19</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O39" s="2" t="s">
         <v>23</v>
@@ -4680,10 +4700,10 @@
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>47</v>
@@ -4697,7 +4717,7 @@
         <v>48</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2">
@@ -4713,7 +4733,7 @@
         <v>19</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O40" s="2" t="s">
         <v>23</v>
@@ -4721,10 +4741,10 @@
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>47</v>
@@ -4738,7 +4758,7 @@
         <v>48</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2">
@@ -4754,7 +4774,7 @@
         <v>19</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O41" s="2" t="s">
         <v>23</v>
@@ -4762,10 +4782,10 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>353</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>354</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>47</v>
@@ -4779,7 +4799,7 @@
         <v>48</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2">
@@ -4795,7 +4815,7 @@
         <v>19</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O42" s="2" t="s">
         <v>23</v>
@@ -4803,22 +4823,22 @@
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>355</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>356</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2">
@@ -4834,7 +4854,7 @@
         <v>19</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O43" s="2" t="s">
         <v>23</v>
@@ -4842,10 +4862,10 @@
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>52</v>
@@ -4857,7 +4877,7 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2">
@@ -4873,7 +4893,7 @@
         <v>19</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>23</v>
@@ -4881,10 +4901,10 @@
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>361</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>11</v>
@@ -4896,7 +4916,7 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>55</v>
@@ -4914,7 +4934,7 @@
         <v>19</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O45" s="2" t="s">
         <v>23</v>
@@ -4922,10 +4942,10 @@
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>362</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>363</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>11</v>
@@ -4937,7 +4957,7 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I46" s="2" t="s">
         <v>56</v>
@@ -4955,7 +4975,7 @@
         <v>19</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O46" s="2" t="s">
         <v>23</v>
@@ -4963,10 +4983,10 @@
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>365</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>11</v>
@@ -4978,7 +4998,7 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>57</v>
@@ -4996,7 +5016,7 @@
         <v>19</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O47" s="2" t="s">
         <v>23</v>
@@ -5004,10 +5024,10 @@
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>367</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>11</v>
@@ -5019,7 +5039,7 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I48" s="2" t="s">
         <v>58</v>
@@ -5037,7 +5057,7 @@
         <v>19</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O48" s="2" t="s">
         <v>23</v>
@@ -5045,10 +5065,10 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>369</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>11</v>
@@ -5060,7 +5080,7 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I49" s="2" t="s">
         <v>59</v>
@@ -5078,7 +5098,7 @@
         <v>19</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O49" s="2" t="s">
         <v>23</v>
@@ -5086,10 +5106,10 @@
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>11</v>
@@ -5101,7 +5121,7 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I50" s="2" t="s">
         <v>60</v>
@@ -5119,7 +5139,7 @@
         <v>19</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>23</v>
@@ -5127,10 +5147,10 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>372</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>373</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>11</v>
@@ -5142,7 +5162,7 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>61</v>
@@ -5160,7 +5180,7 @@
         <v>19</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O51" s="2" t="s">
         <v>23</v>
@@ -5168,10 +5188,10 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>11</v>
@@ -5183,7 +5203,7 @@
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
       <c r="H52" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>62</v>
@@ -5201,7 +5221,7 @@
         <v>19</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O52" s="2" t="s">
         <v>23</v>
@@ -5209,10 +5229,10 @@
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>376</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>377</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>11</v>
@@ -5224,7 +5244,7 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>63</v>
@@ -5242,7 +5262,7 @@
         <v>19</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O53" s="2" t="s">
         <v>23</v>
@@ -5250,10 +5270,10 @@
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>378</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>379</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>11</v>
@@ -5265,7 +5285,7 @@
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
       <c r="H54" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>64</v>
@@ -5283,7 +5303,7 @@
         <v>19</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O54" s="2" t="s">
         <v>23</v>
@@ -5291,10 +5311,10 @@
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>380</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>381</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>11</v>
@@ -5306,7 +5326,7 @@
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
       <c r="H55" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>65</v>
@@ -5324,7 +5344,7 @@
         <v>19</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O55" s="2" t="s">
         <v>23</v>
@@ -5332,10 +5352,10 @@
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>382</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>383</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>11</v>
@@ -5347,7 +5367,7 @@
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I56" s="2" t="s">
         <v>66</v>
@@ -5365,7 +5385,7 @@
         <v>19</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O56" s="2" t="s">
         <v>23</v>
@@ -5373,10 +5393,10 @@
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>384</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>385</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>11</v>
@@ -5388,7 +5408,7 @@
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I57" s="2" t="s">
         <v>67</v>
@@ -5406,7 +5426,7 @@
         <v>19</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O57" s="2" t="s">
         <v>23</v>
@@ -5414,10 +5434,10 @@
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>386</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>387</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>11</v>
@@ -5429,7 +5449,7 @@
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>68</v>
@@ -5447,7 +5467,7 @@
         <v>19</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O58" s="2" t="s">
         <v>23</v>
@@ -5455,10 +5475,10 @@
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>388</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>389</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>11</v>
@@ -5470,7 +5490,7 @@
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>69</v>
@@ -5488,7 +5508,7 @@
         <v>19</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O59" s="2" t="s">
         <v>23</v>
@@ -5496,10 +5516,10 @@
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>390</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>391</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>11</v>
@@ -5511,7 +5531,7 @@
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>70</v>
@@ -5529,7 +5549,7 @@
         <v>19</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O60" s="2" t="s">
         <v>23</v>
@@ -5537,10 +5557,10 @@
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>392</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>393</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>11</v>
@@ -5552,7 +5572,7 @@
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>71</v>
@@ -5570,7 +5590,7 @@
         <v>19</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O61" s="2" t="s">
         <v>23</v>
@@ -5578,10 +5598,10 @@
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>394</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>395</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>11</v>
@@ -5593,7 +5613,7 @@
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>72</v>
@@ -5611,7 +5631,7 @@
         <v>19</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O62" s="2" t="s">
         <v>23</v>
@@ -5619,10 +5639,10 @@
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>396</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>397</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>11</v>
@@ -5634,7 +5654,7 @@
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>73</v>
@@ -5652,7 +5672,7 @@
         <v>19</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O63" s="2" t="s">
         <v>23</v>
@@ -5660,10 +5680,10 @@
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>398</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>399</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>11</v>
@@ -5675,7 +5695,7 @@
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>74</v>
@@ -5693,7 +5713,7 @@
         <v>19</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O64" s="2" t="s">
         <v>23</v>
@@ -5701,10 +5721,10 @@
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>400</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>401</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>11</v>
@@ -5716,7 +5736,7 @@
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I65" s="2" t="s">
         <v>75</v>
@@ -5734,7 +5754,7 @@
         <v>19</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O65" s="2" t="s">
         <v>23</v>
@@ -5742,10 +5762,10 @@
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>402</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>403</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>11</v>
@@ -5757,7 +5777,7 @@
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I66" s="2" t="s">
         <v>76</v>
@@ -5775,7 +5795,7 @@
         <v>19</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O66" s="2" t="s">
         <v>23</v>
@@ -5783,10 +5803,10 @@
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
+        <v>403</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>404</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>405</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>11</v>
@@ -5798,7 +5818,7 @@
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I67" s="2" t="s">
         <v>77</v>
@@ -5816,7 +5836,7 @@
         <v>19</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O67" s="2" t="s">
         <v>23</v>
@@ -5824,10 +5844,10 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>406</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>407</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>11</v>
@@ -5839,7 +5859,7 @@
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I68" s="2" t="s">
         <v>78</v>
@@ -5857,7 +5877,7 @@
         <v>19</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O68" s="2" t="s">
         <v>23</v>
@@ -5865,10 +5885,10 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>408</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>11</v>
@@ -5880,7 +5900,7 @@
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I69" s="2" t="s">
         <v>79</v>
@@ -5898,7 +5918,7 @@
         <v>19</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O69" s="2" t="s">
         <v>23</v>
@@ -5906,10 +5926,10 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>410</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>411</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>11</v>
@@ -5921,7 +5941,7 @@
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I70" s="2" t="s">
         <v>82</v>
@@ -5939,7 +5959,7 @@
         <v>19</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O70" s="2" t="s">
         <v>23</v>
@@ -5947,10 +5967,10 @@
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>412</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>413</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>11</v>
@@ -5962,7 +5982,7 @@
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I71" s="2" t="s">
         <v>83</v>
@@ -5980,7 +6000,7 @@
         <v>19</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O71" s="2" t="s">
         <v>23</v>
@@ -5988,10 +6008,10 @@
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>11</v>
@@ -6003,7 +6023,7 @@
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I72" s="2" t="s">
         <v>84</v>
@@ -6021,7 +6041,7 @@
         <v>19</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O72" s="2" t="s">
         <v>23</v>
@@ -6029,10 +6049,10 @@
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>416</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>417</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>11</v>
@@ -6044,10 +6064,10 @@
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J73" s="2">
         <v>1</v>
@@ -6062,7 +6082,7 @@
         <v>19</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O73" s="2" t="s">
         <v>23</v>
@@ -6070,10 +6090,10 @@
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="B74" s="2" t="s">
         <v>419</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>420</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>11</v>
@@ -6084,10 +6104,10 @@
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>85</v>
@@ -6099,13 +6119,13 @@
         <v>12</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M74" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>23</v>
@@ -6113,10 +6133,10 @@
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>422</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>423</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>33</v>
@@ -6128,7 +6148,7 @@
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>86</v>
@@ -6146,7 +6166,7 @@
         <v>19</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O75" s="2" t="s">
         <v>23</v>
@@ -6154,10 +6174,10 @@
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>424</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>425</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>11</v>
@@ -6169,10 +6189,10 @@
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J76" s="2">
         <v>1</v>
@@ -6187,7 +6207,7 @@
         <v>19</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O76" s="2" t="s">
         <v>23</v>
@@ -6195,10 +6215,10 @@
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>428</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>11</v>
@@ -6210,7 +6230,7 @@
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>87</v>
@@ -6228,7 +6248,7 @@
         <v>19</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O77" s="2" t="s">
         <v>23</v>
@@ -6236,10 +6256,10 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>429</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>430</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>33</v>
@@ -6251,7 +6271,7 @@
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>88</v>
@@ -6269,7 +6289,7 @@
         <v>19</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O78" s="2" t="s">
         <v>23</v>
@@ -6277,10 +6297,10 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>431</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>432</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>11</v>
@@ -6292,7 +6312,7 @@
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>89</v>
@@ -6310,7 +6330,7 @@
         <v>19</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O79" s="2" t="s">
         <v>23</v>
@@ -6318,10 +6338,10 @@
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>433</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>434</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>33</v>
@@ -6333,7 +6353,7 @@
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>90</v>
@@ -6351,7 +6371,7 @@
         <v>19</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O80" s="2" t="s">
         <v>23</v>
@@ -6359,10 +6379,10 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>435</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>436</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>11</v>
@@ -6374,7 +6394,7 @@
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>91</v>
@@ -6392,7 +6412,7 @@
         <v>19</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O81" s="2" t="s">
         <v>23</v>
@@ -6400,10 +6420,10 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>437</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>438</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>11</v>
@@ -6415,10 +6435,10 @@
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I82" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="J82" s="2">
         <v>1</v>
@@ -6433,7 +6453,7 @@
         <v>19</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O82" s="2" t="s">
         <v>23</v>
@@ -6441,10 +6461,10 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>16</v>
@@ -6456,7 +6476,7 @@
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>92</v>
@@ -6474,7 +6494,7 @@
         <v>19</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O83" s="2" t="s">
         <v>23</v>
@@ -6485,7 +6505,7 @@
         <v>93</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>94</v>
@@ -6496,10 +6516,10 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>95</v>
@@ -6517,7 +6537,7 @@
         <v>19</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O84" s="2" t="s">
         <v>23</v>
@@ -6525,10 +6545,10 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>11</v>
@@ -6540,7 +6560,7 @@
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>96</v>
@@ -6558,7 +6578,7 @@
         <v>19</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O85" s="2" t="s">
         <v>23</v>
@@ -6566,10 +6586,10 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>445</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>446</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>11</v>
@@ -6581,7 +6601,7 @@
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I86" s="2" t="s">
         <v>97</v>
@@ -6599,7 +6619,7 @@
         <v>19</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O86" s="2" t="s">
         <v>23</v>
@@ -6607,10 +6627,10 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>447</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>448</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>11</v>
@@ -6622,7 +6642,7 @@
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I87" s="2" t="s">
         <v>98</v>
@@ -6640,7 +6660,7 @@
         <v>19</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O87" s="2" t="s">
         <v>23</v>
@@ -6648,10 +6668,10 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>11</v>
@@ -6663,7 +6683,7 @@
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I88" s="2" t="s">
         <v>99</v>
@@ -6681,7 +6701,7 @@
         <v>19</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O88" s="2" t="s">
         <v>23</v>
@@ -6689,10 +6709,10 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>451</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>452</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>11</v>
@@ -6704,7 +6724,7 @@
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I89" s="2" t="s">
         <v>100</v>
@@ -6722,7 +6742,7 @@
         <v>19</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O89" s="2" t="s">
         <v>23</v>
@@ -6730,10 +6750,10 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>453</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>454</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>11</v>
@@ -6745,7 +6765,7 @@
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I90" s="2" t="s">
         <v>101</v>
@@ -6763,7 +6783,7 @@
         <v>19</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O90" s="2" t="s">
         <v>23</v>
@@ -6771,10 +6791,10 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>455</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>456</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>11</v>
@@ -6786,7 +6806,7 @@
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I91" s="2" t="s">
         <v>102</v>
@@ -6804,7 +6824,7 @@
         <v>19</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O91" s="2" t="s">
         <v>23</v>
@@ -6812,10 +6832,10 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>457</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>458</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>11</v>
@@ -6827,7 +6847,7 @@
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>103</v>
@@ -6845,7 +6865,7 @@
         <v>19</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O92" s="2" t="s">
         <v>23</v>
@@ -6853,10 +6873,10 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>459</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>460</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>11</v>
@@ -6868,7 +6888,7 @@
       <c r="F93" s="2"/>
       <c r="G93" s="2"/>
       <c r="H93" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I93" s="2" t="s">
         <v>104</v>
@@ -6886,7 +6906,7 @@
         <v>19</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O93" s="2" t="s">
         <v>23</v>
@@ -6894,10 +6914,10 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>461</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>462</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>11</v>
@@ -6909,7 +6929,7 @@
       <c r="F94" s="2"/>
       <c r="G94" s="2"/>
       <c r="H94" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I94" s="2" t="s">
         <v>105</v>
@@ -6927,7 +6947,7 @@
         <v>19</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>23</v>
@@ -6935,10 +6955,10 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>463</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>464</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>11</v>
@@ -6950,7 +6970,7 @@
       <c r="F95" s="2"/>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I95" s="2" t="s">
         <v>106</v>
@@ -6968,7 +6988,7 @@
         <v>19</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O95" s="2" t="s">
         <v>23</v>
@@ -6976,10 +6996,10 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>465</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>466</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>11</v>
@@ -6991,7 +7011,7 @@
       <c r="F96" s="2"/>
       <c r="G96" s="2"/>
       <c r="H96" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I96" s="2" t="s">
         <v>107</v>
@@ -7009,7 +7029,7 @@
         <v>19</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O96" s="2" t="s">
         <v>23</v>
@@ -7017,10 +7037,10 @@
     </row>
     <row r="97" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>467</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>468</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>11</v>
@@ -7032,7 +7052,7 @@
       <c r="F97" s="2"/>
       <c r="G97" s="2"/>
       <c r="H97" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I97" s="2" t="s">
         <v>108</v>
@@ -7050,7 +7070,7 @@
         <v>19</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O97" s="2" t="s">
         <v>23</v>
@@ -7058,10 +7078,10 @@
     </row>
     <row r="98" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>469</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>470</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>11</v>
@@ -7073,7 +7093,7 @@
       <c r="F98" s="2"/>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I98" s="2" t="s">
         <v>109</v>
@@ -7091,7 +7111,7 @@
         <v>19</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O98" s="2" t="s">
         <v>23</v>
@@ -7099,10 +7119,10 @@
     </row>
     <row r="99" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>471</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>472</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>11</v>
@@ -7114,7 +7134,7 @@
       <c r="F99" s="2"/>
       <c r="G99" s="2"/>
       <c r="H99" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I99" s="2" t="s">
         <v>110</v>
@@ -7132,7 +7152,7 @@
         <v>19</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O99" s="2" t="s">
         <v>23</v>
@@ -7140,10 +7160,10 @@
     </row>
     <row r="100" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
+        <v>472</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>473</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>474</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>11</v>
@@ -7155,7 +7175,7 @@
       <c r="F100" s="2"/>
       <c r="G100" s="2"/>
       <c r="H100" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>111</v>
@@ -7173,7 +7193,7 @@
         <v>19</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O100" s="2" t="s">
         <v>23</v>
@@ -7181,10 +7201,10 @@
     </row>
     <row r="101" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
+        <v>474</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>475</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>476</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>11</v>
@@ -7196,7 +7216,7 @@
       <c r="F101" s="2"/>
       <c r="G101" s="2"/>
       <c r="H101" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>112</v>
@@ -7214,7 +7234,7 @@
         <v>19</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O101" s="2" t="s">
         <v>23</v>
@@ -7222,10 +7242,10 @@
     </row>
     <row r="102" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
+        <v>476</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>477</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>478</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>11</v>
@@ -7237,7 +7257,7 @@
       <c r="F102" s="2"/>
       <c r="G102" s="2"/>
       <c r="H102" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>113</v>
@@ -7255,7 +7275,7 @@
         <v>19</v>
       </c>
       <c r="N102" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O102" s="2" t="s">
         <v>23</v>
@@ -7263,10 +7283,10 @@
     </row>
     <row r="103" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
+        <v>478</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>479</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>480</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>11</v>
@@ -7278,7 +7298,7 @@
       <c r="F103" s="2"/>
       <c r="G103" s="2"/>
       <c r="H103" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>114</v>
@@ -7296,7 +7316,7 @@
         <v>19</v>
       </c>
       <c r="N103" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O103" s="2" t="s">
         <v>23</v>
@@ -7304,10 +7324,10 @@
     </row>
     <row r="104" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>481</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>482</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>11</v>
@@ -7319,7 +7339,7 @@
       <c r="F104" s="2"/>
       <c r="G104" s="2"/>
       <c r="H104" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>115</v>
@@ -7337,7 +7357,7 @@
         <v>19</v>
       </c>
       <c r="N104" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O104" s="2" t="s">
         <v>23</v>
@@ -7345,10 +7365,10 @@
     </row>
     <row r="105" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>483</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>484</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>11</v>
@@ -7360,7 +7380,7 @@
       <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I105" s="2" t="s">
         <v>116</v>
@@ -7378,7 +7398,7 @@
         <v>19</v>
       </c>
       <c r="N105" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O105" s="2" t="s">
         <v>23</v>
@@ -7386,10 +7406,10 @@
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
+        <v>484</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>485</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>486</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>11</v>
@@ -7401,7 +7421,7 @@
       <c r="F106" s="2"/>
       <c r="G106" s="2"/>
       <c r="H106" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I106" s="2" t="s">
         <v>117</v>
@@ -7419,7 +7439,7 @@
         <v>19</v>
       </c>
       <c r="N106" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O106" s="2" t="s">
         <v>23</v>
@@ -7427,10 +7447,10 @@
     </row>
     <row r="107" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
+        <v>486</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>487</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>488</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>11</v>
@@ -7442,7 +7462,7 @@
       <c r="F107" s="2"/>
       <c r="G107" s="2"/>
       <c r="H107" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I107" s="2" t="s">
         <v>118</v>
@@ -7460,7 +7480,7 @@
         <v>19</v>
       </c>
       <c r="N107" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O107" s="2" t="s">
         <v>23</v>
@@ -7468,10 +7488,10 @@
     </row>
     <row r="108" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
+        <v>488</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>489</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>490</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>11</v>
@@ -7483,7 +7503,7 @@
       <c r="F108" s="2"/>
       <c r="G108" s="2"/>
       <c r="H108" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I108" s="2" t="s">
         <v>119</v>
@@ -7501,7 +7521,7 @@
         <v>19</v>
       </c>
       <c r="N108" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O108" s="2" t="s">
         <v>23</v>
@@ -7509,10 +7529,10 @@
     </row>
     <row r="109" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>491</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>492</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>11</v>
@@ -7524,7 +7544,7 @@
       <c r="F109" s="2"/>
       <c r="G109" s="2"/>
       <c r="H109" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I109" s="2" t="s">
         <v>120</v>
@@ -7542,7 +7562,7 @@
         <v>19</v>
       </c>
       <c r="N109" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O109" s="2" t="s">
         <v>23</v>
@@ -7550,10 +7570,10 @@
     </row>
     <row r="110" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>493</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>494</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>11</v>
@@ -7565,10 +7585,10 @@
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
       <c r="H110" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I110" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J110" s="2">
         <v>1</v>
@@ -7583,7 +7603,7 @@
         <v>19</v>
       </c>
       <c r="N110" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O110" s="2" t="s">
         <v>23</v>
@@ -7591,10 +7611,10 @@
     </row>
     <row r="111" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
+        <v>495</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>496</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>497</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>11</v>
@@ -7606,10 +7626,10 @@
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
       <c r="H111" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I111" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J111" s="2">
         <v>1</v>
@@ -7624,7 +7644,7 @@
         <v>19</v>
       </c>
       <c r="N111" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O111" s="2" t="s">
         <v>23</v>
@@ -7632,10 +7652,10 @@
     </row>
     <row r="112" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>499</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>500</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>80</v>
@@ -7647,7 +7667,7 @@
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I112" s="2" t="s">
         <v>121</v>
@@ -7665,7 +7685,7 @@
         <v>19</v>
       </c>
       <c r="N112" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O112" s="2" t="s">
         <v>23</v>
@@ -7673,10 +7693,10 @@
     </row>
     <row r="113" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>501</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>502</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>11</v>
@@ -7688,7 +7708,7 @@
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I113" s="2" t="s">
         <v>122</v>
@@ -7706,7 +7726,7 @@
         <v>19</v>
       </c>
       <c r="N113" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O113" s="2" t="s">
         <v>23</v>
@@ -7714,10 +7734,10 @@
     </row>
     <row r="114" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
+        <v>502</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>503</v>
-      </c>
-      <c r="B114" s="2" t="s">
-        <v>504</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>80</v>
@@ -7729,7 +7749,7 @@
       <c r="F114" s="2"/>
       <c r="G114" s="2"/>
       <c r="H114" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I114" s="2" t="s">
         <v>123</v>
@@ -7747,7 +7767,7 @@
         <v>19</v>
       </c>
       <c r="N114" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O114" s="2" t="s">
         <v>23</v>
@@ -7755,10 +7775,10 @@
     </row>
     <row r="115" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
+        <v>504</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>505</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>506</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>11</v>
@@ -7770,7 +7790,7 @@
       <c r="F115" s="2"/>
       <c r="G115" s="2"/>
       <c r="H115" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I115" s="2" t="s">
         <v>124</v>
@@ -7788,7 +7808,7 @@
         <v>19</v>
       </c>
       <c r="N115" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O115" s="2" t="s">
         <v>23</v>
@@ -7796,10 +7816,10 @@
     </row>
     <row r="116" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>507</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>508</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>33</v>
@@ -7811,7 +7831,7 @@
       <c r="F116" s="2"/>
       <c r="G116" s="2"/>
       <c r="H116" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I116" s="2" t="s">
         <v>125</v>
@@ -7829,7 +7849,7 @@
         <v>19</v>
       </c>
       <c r="N116" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O116" s="2" t="s">
         <v>23</v>
@@ -7837,10 +7857,10 @@
     </row>
     <row r="117" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
+        <v>508</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>509</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>510</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>11</v>
@@ -7852,7 +7872,7 @@
       <c r="F117" s="2"/>
       <c r="G117" s="2"/>
       <c r="H117" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I117" s="2" t="s">
         <v>126</v>
@@ -7870,7 +7890,7 @@
         <v>19</v>
       </c>
       <c r="N117" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O117" s="2" t="s">
         <v>23</v>
@@ -7878,10 +7898,10 @@
     </row>
     <row r="118" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
+        <v>510</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>511</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>512</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>16</v>
@@ -7893,7 +7913,7 @@
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I118" s="2" t="s">
         <v>127</v>
@@ -7911,7 +7931,7 @@
         <v>19</v>
       </c>
       <c r="N118" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O118" s="2" t="s">
         <v>23</v>
@@ -7922,7 +7942,7 @@
         <v>128</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>94</v>
@@ -7933,10 +7953,10 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
       <c r="G119" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I119" s="2" t="s">
         <v>129</v>
@@ -7954,7 +7974,7 @@
         <v>19</v>
       </c>
       <c r="N119" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O119" s="2" t="s">
         <v>23</v>
@@ -7962,10 +7982,10 @@
     </row>
     <row r="120" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>514</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>515</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>11</v>
@@ -7977,7 +7997,7 @@
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I120" s="2" t="s">
         <v>130</v>
@@ -7995,7 +8015,7 @@
         <v>19</v>
       </c>
       <c r="N120" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O120" s="2" t="s">
         <v>23</v>
@@ -8003,10 +8023,10 @@
     </row>
     <row r="121" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
+        <v>515</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>517</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>11</v>
@@ -8018,7 +8038,7 @@
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
       <c r="H121" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>131</v>
@@ -8036,7 +8056,7 @@
         <v>19</v>
       </c>
       <c r="N121" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O121" s="2" t="s">
         <v>23</v>
@@ -8044,10 +8064,10 @@
     </row>
     <row r="122" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>518</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>519</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>11</v>
@@ -8059,7 +8079,7 @@
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
       <c r="H122" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>132</v>
@@ -8077,7 +8097,7 @@
         <v>19</v>
       </c>
       <c r="N122" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O122" s="2" t="s">
         <v>23</v>
@@ -8085,10 +8105,10 @@
     </row>
     <row r="123" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>520</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>521</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>11</v>
@@ -8100,7 +8120,7 @@
       <c r="F123" s="2"/>
       <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>133</v>
@@ -8118,7 +8138,7 @@
         <v>19</v>
       </c>
       <c r="N123" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O123" s="2" t="s">
         <v>23</v>
@@ -8126,10 +8146,10 @@
     </row>
     <row r="124" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>522</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>523</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>11</v>
@@ -8141,7 +8161,7 @@
       <c r="F124" s="2"/>
       <c r="G124" s="2"/>
       <c r="H124" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>134</v>
@@ -8159,7 +8179,7 @@
         <v>19</v>
       </c>
       <c r="N124" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O124" s="2" t="s">
         <v>23</v>
@@ -8167,10 +8187,10 @@
     </row>
     <row r="125" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>524</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>525</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>11</v>
@@ -8182,7 +8202,7 @@
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>135</v>
@@ -8200,7 +8220,7 @@
         <v>19</v>
       </c>
       <c r="N125" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O125" s="2" t="s">
         <v>23</v>
@@ -8208,10 +8228,10 @@
     </row>
     <row r="126" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
+        <v>525</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>11</v>
@@ -8223,7 +8243,7 @@
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
       <c r="H126" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>136</v>
@@ -8241,7 +8261,7 @@
         <v>19</v>
       </c>
       <c r="N126" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O126" s="2" t="s">
         <v>23</v>
@@ -8249,10 +8269,10 @@
     </row>
     <row r="127" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>528</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>529</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>11</v>
@@ -8264,7 +8284,7 @@
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>137</v>
@@ -8282,7 +8302,7 @@
         <v>19</v>
       </c>
       <c r="N127" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O127" s="2" t="s">
         <v>23</v>
@@ -8290,10 +8310,10 @@
     </row>
     <row r="128" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>530</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>531</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>11</v>
@@ -8305,7 +8325,7 @@
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>138</v>
@@ -8323,7 +8343,7 @@
         <v>19</v>
       </c>
       <c r="N128" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O128" s="2" t="s">
         <v>23</v>
@@ -8331,10 +8351,10 @@
     </row>
     <row r="129" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>532</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>533</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>11</v>
@@ -8346,7 +8366,7 @@
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>139</v>
@@ -8364,7 +8384,7 @@
         <v>19</v>
       </c>
       <c r="N129" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O129" s="2" t="s">
         <v>23</v>
@@ -8372,10 +8392,10 @@
     </row>
     <row r="130" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
+        <v>533</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>534</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>535</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>11</v>
@@ -8387,7 +8407,7 @@
       <c r="F130" s="2"/>
       <c r="G130" s="2"/>
       <c r="H130" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>140</v>
@@ -8405,7 +8425,7 @@
         <v>19</v>
       </c>
       <c r="N130" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O130" s="2" t="s">
         <v>23</v>
@@ -8413,10 +8433,10 @@
     </row>
     <row r="131" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>536</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>537</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>11</v>
@@ -8428,7 +8448,7 @@
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>141</v>
@@ -8446,7 +8466,7 @@
         <v>19</v>
       </c>
       <c r="N131" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O131" s="2" t="s">
         <v>23</v>
@@ -8454,10 +8474,10 @@
     </row>
     <row r="132" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
+        <v>537</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>538</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>539</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>11</v>
@@ -8469,7 +8489,7 @@
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>142</v>
@@ -8487,7 +8507,7 @@
         <v>19</v>
       </c>
       <c r="N132" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O132" s="2" t="s">
         <v>23</v>
@@ -8495,10 +8515,10 @@
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
+        <v>539</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>540</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>541</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>11</v>
@@ -8510,7 +8530,7 @@
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
       <c r="H133" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>143</v>
@@ -8528,7 +8548,7 @@
         <v>19</v>
       </c>
       <c r="N133" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O133" s="2" t="s">
         <v>23</v>
@@ -8536,10 +8556,10 @@
     </row>
     <row r="134" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>542</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>543</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>11</v>
@@ -8551,7 +8571,7 @@
       <c r="F134" s="2"/>
       <c r="G134" s="2"/>
       <c r="H134" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>144</v>
@@ -8569,7 +8589,7 @@
         <v>19</v>
       </c>
       <c r="N134" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O134" s="2" t="s">
         <v>23</v>
@@ -8577,10 +8597,10 @@
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
+        <v>543</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>544</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>545</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>11</v>
@@ -8592,7 +8612,7 @@
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
       <c r="H135" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>145</v>
@@ -8610,7 +8630,7 @@
         <v>19</v>
       </c>
       <c r="N135" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O135" s="2" t="s">
         <v>23</v>
@@ -8618,10 +8638,10 @@
     </row>
     <row r="136" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>546</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>547</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>11</v>
@@ -8633,7 +8653,7 @@
       <c r="F136" s="2"/>
       <c r="G136" s="2"/>
       <c r="H136" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>146</v>
@@ -8651,7 +8671,7 @@
         <v>19</v>
       </c>
       <c r="N136" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O136" s="2" t="s">
         <v>23</v>
@@ -8659,10 +8679,10 @@
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>548</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>549</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>11</v>
@@ -8674,7 +8694,7 @@
       <c r="F137" s="2"/>
       <c r="G137" s="2"/>
       <c r="H137" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>147</v>
@@ -8692,7 +8712,7 @@
         <v>19</v>
       </c>
       <c r="N137" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O137" s="2" t="s">
         <v>23</v>
@@ -8700,10 +8720,10 @@
     </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>550</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>551</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>11</v>
@@ -8715,7 +8735,7 @@
       <c r="F138" s="2"/>
       <c r="G138" s="2"/>
       <c r="H138" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>148</v>
@@ -8733,7 +8753,7 @@
         <v>19</v>
       </c>
       <c r="N138" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O138" s="2" t="s">
         <v>23</v>
@@ -8741,10 +8761,10 @@
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>552</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>553</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>11</v>
@@ -8756,7 +8776,7 @@
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>149</v>
@@ -8774,7 +8794,7 @@
         <v>19</v>
       </c>
       <c r="N139" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O139" s="2" t="s">
         <v>23</v>
@@ -8782,10 +8802,10 @@
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="B140" s="2" t="s">
         <v>554</v>
-      </c>
-      <c r="B140" s="2" t="s">
-        <v>555</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>11</v>
@@ -8797,7 +8817,7 @@
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>150</v>
@@ -8815,7 +8835,7 @@
         <v>19</v>
       </c>
       <c r="N140" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O140" s="2" t="s">
         <v>23</v>
@@ -8823,10 +8843,10 @@
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>556</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>557</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>11</v>
@@ -8838,7 +8858,7 @@
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>151</v>
@@ -8856,7 +8876,7 @@
         <v>19</v>
       </c>
       <c r="N141" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O141" s="2" t="s">
         <v>23</v>
@@ -8864,10 +8884,10 @@
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>11</v>
@@ -8879,7 +8899,7 @@
       <c r="F142" s="2"/>
       <c r="G142" s="2"/>
       <c r="H142" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>152</v>
@@ -8897,7 +8917,7 @@
         <v>19</v>
       </c>
       <c r="N142" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O142" s="2" t="s">
         <v>23</v>
@@ -8905,10 +8925,10 @@
     </row>
     <row r="143" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B143" s="2" t="s">
         <v>560</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>561</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>11</v>
@@ -8920,7 +8940,7 @@
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>153</v>
@@ -8938,7 +8958,7 @@
         <v>19</v>
       </c>
       <c r="N143" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O143" s="2" t="s">
         <v>23</v>
@@ -8946,10 +8966,10 @@
     </row>
     <row r="144" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="B144" s="2" t="s">
         <v>562</v>
-      </c>
-      <c r="B144" s="2" t="s">
-        <v>563</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>11</v>
@@ -8961,7 +8981,7 @@
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>154</v>
@@ -8979,7 +8999,7 @@
         <v>19</v>
       </c>
       <c r="N144" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O144" s="2" t="s">
         <v>23</v>
@@ -8987,10 +9007,10 @@
     </row>
     <row r="145" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B145" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="B145" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>11</v>
@@ -9002,7 +9022,7 @@
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
       <c r="H145" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>155</v>
@@ -9020,7 +9040,7 @@
         <v>19</v>
       </c>
       <c r="N145" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O145" s="2" t="s">
         <v>23</v>
@@ -9028,10 +9048,10 @@
     </row>
     <row r="146" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B146" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>11</v>
@@ -9042,10 +9062,10 @@
       <c r="E146" s="2"/>
       <c r="F146" s="2"/>
       <c r="G146" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>156</v>
@@ -9057,13 +9077,13 @@
         <v>12</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M146" s="2" t="s">
         <v>19</v>
       </c>
       <c r="N146" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O146" s="2" t="s">
         <v>23</v>
@@ -9071,10 +9091,10 @@
     </row>
     <row r="147" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B147" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B147" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>11</v>
@@ -9086,7 +9106,7 @@
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
       <c r="H147" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>157</v>
@@ -9104,7 +9124,7 @@
         <v>19</v>
       </c>
       <c r="N147" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O147" s="2" t="s">
         <v>23</v>
@@ -9112,10 +9132,10 @@
     </row>
     <row r="148" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B148" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="B148" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>11</v>
@@ -9127,7 +9147,7 @@
       <c r="F148" s="2"/>
       <c r="G148" s="2"/>
       <c r="H148" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>158</v>
@@ -9145,7 +9165,7 @@
         <v>19</v>
       </c>
       <c r="N148" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O148" s="2" t="s">
         <v>23</v>
@@ -9153,10 +9173,10 @@
     </row>
     <row r="149" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>13</v>
@@ -9168,7 +9188,7 @@
       <c r="F149" s="2"/>
       <c r="G149" s="2"/>
       <c r="H149" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>159</v>
@@ -9186,7 +9206,7 @@
         <v>19</v>
       </c>
       <c r="N149" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O149" s="2" t="s">
         <v>23</v>
@@ -9194,10 +9214,10 @@
     </row>
     <row r="150" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B150" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>13</v>
@@ -9209,7 +9229,7 @@
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
       <c r="H150" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>161</v>
@@ -9227,7 +9247,7 @@
         <v>19</v>
       </c>
       <c r="N150" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O150" s="2" t="s">
         <v>23</v>
@@ -9235,10 +9255,10 @@
     </row>
     <row r="151" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B151" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>162</v>
@@ -9250,7 +9270,7 @@
       <c r="F151" s="2"/>
       <c r="G151" s="2"/>
       <c r="H151" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>164</v>
@@ -9268,7 +9288,7 @@
         <v>19</v>
       </c>
       <c r="N151" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O151" s="2" t="s">
         <v>23</v>
@@ -9276,10 +9296,10 @@
     </row>
     <row r="152" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B152" s="2" t="s">
         <v>577</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>578</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>162</v>
@@ -9291,7 +9311,7 @@
       <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>165</v>
@@ -9309,7 +9329,7 @@
         <v>19</v>
       </c>
       <c r="N152" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O152" s="2" t="s">
         <v>23</v>
@@ -9317,10 +9337,10 @@
     </row>
     <row r="153" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B153" s="2" t="s">
         <v>579</v>
-      </c>
-      <c r="B153" s="2" t="s">
-        <v>580</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>33</v>
@@ -9332,7 +9352,7 @@
       <c r="F153" s="2"/>
       <c r="G153" s="2"/>
       <c r="H153" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>166</v>
@@ -9350,7 +9370,7 @@
         <v>19</v>
       </c>
       <c r="N153" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O153" s="2" t="s">
         <v>23</v>
@@ -9358,10 +9378,10 @@
     </row>
     <row r="154" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B154" s="2" t="s">
         <v>581</v>
-      </c>
-      <c r="B154" s="2" t="s">
-        <v>582</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>11</v>
@@ -9373,7 +9393,7 @@
       <c r="F154" s="2"/>
       <c r="G154" s="2"/>
       <c r="H154" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>167</v>
@@ -9391,7 +9411,7 @@
         <v>19</v>
       </c>
       <c r="N154" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O154" s="2" t="s">
         <v>23</v>
@@ -9399,10 +9419,10 @@
     </row>
     <row r="155" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>583</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>584</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>80</v>
@@ -9414,7 +9434,7 @@
       <c r="F155" s="2"/>
       <c r="G155" s="2"/>
       <c r="H155" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>168</v>
@@ -9432,7 +9452,7 @@
         <v>19</v>
       </c>
       <c r="N155" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O155" s="2" t="s">
         <v>23</v>
@@ -9440,10 +9460,10 @@
     </row>
     <row r="156" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B156" s="2" t="s">
         <v>585</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>586</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>11</v>
@@ -9455,7 +9475,7 @@
       <c r="F156" s="2"/>
       <c r="G156" s="2"/>
       <c r="H156" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>169</v>
@@ -9473,7 +9493,7 @@
         <v>19</v>
       </c>
       <c r="N156" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O156" s="2" t="s">
         <v>23</v>
@@ -9481,10 +9501,10 @@
     </row>
     <row r="157" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="B157" s="2" t="s">
         <v>587</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>588</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>33</v>
@@ -9496,7 +9516,7 @@
       <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>170</v>
@@ -9514,7 +9534,7 @@
         <v>19</v>
       </c>
       <c r="N157" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O157" s="2" t="s">
         <v>23</v>
@@ -9522,10 +9542,10 @@
     </row>
     <row r="158" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B158" s="2" t="s">
         <v>589</v>
-      </c>
-      <c r="B158" s="2" t="s">
-        <v>590</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>11</v>
@@ -9537,7 +9557,7 @@
       <c r="F158" s="2"/>
       <c r="G158" s="2"/>
       <c r="H158" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>171</v>
@@ -9555,7 +9575,7 @@
         <v>19</v>
       </c>
       <c r="N158" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O158" s="2" t="s">
         <v>23</v>
@@ -9563,10 +9583,10 @@
     </row>
     <row r="159" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B159" s="2" t="s">
         <v>591</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>592</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>11</v>
@@ -9578,7 +9598,7 @@
       <c r="F159" s="2"/>
       <c r="G159" s="2"/>
       <c r="H159" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>172</v>
@@ -9596,7 +9616,7 @@
         <v>19</v>
       </c>
       <c r="N159" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O159" s="2" t="s">
         <v>23</v>
@@ -9604,10 +9624,10 @@
     </row>
     <row r="160" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B160" s="2" t="s">
         <v>593</v>
-      </c>
-      <c r="B160" s="2" t="s">
-        <v>594</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>16</v>
@@ -9619,7 +9639,7 @@
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>173</v>
@@ -9637,7 +9657,7 @@
         <v>19</v>
       </c>
       <c r="N160" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O160" s="2" t="s">
         <v>23</v>
@@ -9648,7 +9668,7 @@
         <v>174</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>94</v>
@@ -9659,10 +9679,10 @@
       <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>175</v>
@@ -9680,7 +9700,7 @@
         <v>19</v>
       </c>
       <c r="N161" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O161" s="2" t="s">
         <v>23</v>
@@ -9688,10 +9708,10 @@
     </row>
     <row r="162" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
+        <v>595</v>
+      </c>
+      <c r="B162" s="2" t="s">
         <v>596</v>
-      </c>
-      <c r="B162" s="2" t="s">
-        <v>597</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>11</v>
@@ -9703,7 +9723,7 @@
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>176</v>
@@ -9721,7 +9741,7 @@
         <v>19</v>
       </c>
       <c r="N162" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O162" s="2" t="s">
         <v>23</v>
@@ -9729,10 +9749,10 @@
     </row>
     <row r="163" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="B163" s="2" t="s">
         <v>598</v>
-      </c>
-      <c r="B163" s="2" t="s">
-        <v>599</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>11</v>
@@ -9744,7 +9764,7 @@
       <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>177</v>
@@ -9762,7 +9782,7 @@
         <v>19</v>
       </c>
       <c r="N163" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O163" s="2" t="s">
         <v>23</v>
@@ -9770,10 +9790,10 @@
     </row>
     <row r="164" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B164" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="B164" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>11</v>
@@ -9785,7 +9805,7 @@
       <c r="F164" s="2"/>
       <c r="G164" s="2"/>
       <c r="H164" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>178</v>
@@ -9803,7 +9823,7 @@
         <v>19</v>
       </c>
       <c r="N164" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O164" s="2" t="s">
         <v>23</v>
@@ -9811,10 +9831,10 @@
     </row>
     <row r="165" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B165" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="B165" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>11</v>
@@ -9826,7 +9846,7 @@
       <c r="F165" s="2"/>
       <c r="G165" s="2"/>
       <c r="H165" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>179</v>
@@ -9844,7 +9864,7 @@
         <v>19</v>
       </c>
       <c r="N165" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O165" s="2" t="s">
         <v>23</v>
@@ -9852,10 +9872,10 @@
     </row>
     <row r="166" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="B166" s="2" t="s">
         <v>604</v>
-      </c>
-      <c r="B166" s="2" t="s">
-        <v>605</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>11</v>
@@ -9867,7 +9887,7 @@
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
       <c r="H166" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>180</v>
@@ -9885,7 +9905,7 @@
         <v>19</v>
       </c>
       <c r="N166" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O166" s="2" t="s">
         <v>23</v>
@@ -9893,10 +9913,10 @@
     </row>
     <row r="167" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="B167" s="2" t="s">
         <v>606</v>
-      </c>
-      <c r="B167" s="2" t="s">
-        <v>607</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>11</v>
@@ -9908,7 +9928,7 @@
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
       <c r="H167" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>181</v>
@@ -9926,7 +9946,7 @@
         <v>19</v>
       </c>
       <c r="N167" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O167" s="2" t="s">
         <v>23</v>
@@ -9934,10 +9954,10 @@
     </row>
     <row r="168" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="B168" s="2" t="s">
         <v>608</v>
-      </c>
-      <c r="B168" s="2" t="s">
-        <v>609</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>11</v>
@@ -9949,7 +9969,7 @@
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>182</v>
@@ -9967,7 +9987,7 @@
         <v>19</v>
       </c>
       <c r="N168" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O168" s="2" t="s">
         <v>23</v>
@@ -9975,10 +9995,10 @@
     </row>
     <row r="169" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
+        <v>609</v>
+      </c>
+      <c r="B169" s="2" t="s">
         <v>610</v>
-      </c>
-      <c r="B169" s="2" t="s">
-        <v>611</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>11</v>
@@ -9990,7 +10010,7 @@
       <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I169" s="2" t="s">
         <v>183</v>
@@ -10008,7 +10028,7 @@
         <v>19</v>
       </c>
       <c r="N169" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O169" s="2" t="s">
         <v>23</v>
@@ -10016,10 +10036,10 @@
     </row>
     <row r="170" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B170" s="2" t="s">
         <v>612</v>
-      </c>
-      <c r="B170" s="2" t="s">
-        <v>613</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>11</v>
@@ -10031,7 +10051,7 @@
       <c r="F170" s="2"/>
       <c r="G170" s="2"/>
       <c r="H170" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>184</v>
@@ -10049,7 +10069,7 @@
         <v>19</v>
       </c>
       <c r="N170" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O170" s="2" t="s">
         <v>23</v>
@@ -10057,10 +10077,10 @@
     </row>
     <row r="171" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B171" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="B171" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>11</v>
@@ -10072,7 +10092,7 @@
       <c r="F171" s="2"/>
       <c r="G171" s="2"/>
       <c r="H171" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I171" s="2" t="s">
         <v>185</v>
@@ -10090,7 +10110,7 @@
         <v>19</v>
       </c>
       <c r="N171" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O171" s="2" t="s">
         <v>23</v>
@@ -10098,10 +10118,10 @@
     </row>
     <row r="172" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B172" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="B172" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>11</v>
@@ -10113,7 +10133,7 @@
       <c r="F172" s="2"/>
       <c r="G172" s="2"/>
       <c r="H172" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I172" s="2" t="s">
         <v>186</v>
@@ -10131,7 +10151,7 @@
         <v>19</v>
       </c>
       <c r="N172" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O172" s="2" t="s">
         <v>23</v>
@@ -10139,10 +10159,10 @@
     </row>
     <row r="173" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B173" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>11</v>
@@ -10154,7 +10174,7 @@
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I173" s="2" t="s">
         <v>187</v>
@@ -10172,7 +10192,7 @@
         <v>19</v>
       </c>
       <c r="N173" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O173" s="2" t="s">
         <v>23</v>
@@ -10180,10 +10200,10 @@
     </row>
     <row r="174" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B174" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>11</v>
@@ -10195,10 +10215,10 @@
       <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I174" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="J174" s="2">
         <v>1</v>
@@ -10213,7 +10233,7 @@
         <v>19</v>
       </c>
       <c r="N174" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O174" s="2" t="s">
         <v>23</v>
@@ -10221,10 +10241,10 @@
     </row>
     <row r="175" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B175" s="2" t="s">
         <v>623</v>
-      </c>
-      <c r="B175" s="2" t="s">
-        <v>624</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>11</v>
@@ -10236,7 +10256,7 @@
       <c r="F175" s="2"/>
       <c r="G175" s="2"/>
       <c r="H175" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I175" s="2" t="s">
         <v>188</v>
@@ -10254,7 +10274,7 @@
         <v>19</v>
       </c>
       <c r="N175" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O175" s="2" t="s">
         <v>23</v>
@@ -10262,10 +10282,10 @@
     </row>
     <row r="176" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
+        <v>624</v>
+      </c>
+      <c r="B176" s="2" t="s">
         <v>625</v>
-      </c>
-      <c r="B176" s="2" t="s">
-        <v>626</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>11</v>
@@ -10277,7 +10297,7 @@
       <c r="F176" s="2"/>
       <c r="G176" s="2"/>
       <c r="H176" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I176" s="2" t="s">
         <v>189</v>
@@ -10295,7 +10315,7 @@
         <v>19</v>
       </c>
       <c r="N176" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O176" s="2" t="s">
         <v>23</v>
@@ -10303,10 +10323,10 @@
     </row>
     <row r="177" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="B177" s="2" t="s">
         <v>627</v>
-      </c>
-      <c r="B177" s="2" t="s">
-        <v>628</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>11</v>
@@ -10318,7 +10338,7 @@
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I177" s="2" t="s">
         <v>190</v>
@@ -10336,7 +10356,7 @@
         <v>19</v>
       </c>
       <c r="N177" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O177" s="2" t="s">
         <v>23</v>
@@ -10344,10 +10364,10 @@
     </row>
     <row r="178" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B178" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="B178" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>11</v>
@@ -10359,7 +10379,7 @@
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
       <c r="H178" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I178" s="2" t="s">
         <v>191</v>
@@ -10377,7 +10397,7 @@
         <v>19</v>
       </c>
       <c r="N178" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O178" s="2" t="s">
         <v>23</v>
@@ -10385,10 +10405,10 @@
     </row>
     <row r="179" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
+        <v>630</v>
+      </c>
+      <c r="B179" s="2" t="s">
         <v>631</v>
-      </c>
-      <c r="B179" s="2" t="s">
-        <v>632</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>11</v>
@@ -10400,7 +10420,7 @@
       <c r="F179" s="2"/>
       <c r="G179" s="2"/>
       <c r="H179" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I179" s="2" t="s">
         <v>192</v>
@@ -10418,7 +10438,7 @@
         <v>19</v>
       </c>
       <c r="N179" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O179" s="2" t="s">
         <v>23</v>
@@ -10426,10 +10446,10 @@
     </row>
     <row r="180" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B180" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="B180" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>11</v>
@@ -10441,7 +10461,7 @@
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I180" s="2" t="s">
         <v>193</v>
@@ -10459,7 +10479,7 @@
         <v>19</v>
       </c>
       <c r="N180" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O180" s="2" t="s">
         <v>23</v>
@@ -10467,10 +10487,10 @@
     </row>
     <row r="181" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B181" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="B181" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>11</v>
@@ -10482,7 +10502,7 @@
       <c r="F181" s="2"/>
       <c r="G181" s="2"/>
       <c r="H181" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I181" s="2" t="s">
         <v>194</v>
@@ -10500,7 +10520,7 @@
         <v>19</v>
       </c>
       <c r="N181" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O181" s="2" t="s">
         <v>23</v>
@@ -10508,10 +10528,10 @@
     </row>
     <row r="182" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B182" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B182" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>11</v>
@@ -10523,7 +10543,7 @@
       <c r="F182" s="2"/>
       <c r="G182" s="2"/>
       <c r="H182" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I182" s="2" t="s">
         <v>195</v>
@@ -10541,7 +10561,7 @@
         <v>19</v>
       </c>
       <c r="N182" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O182" s="2" t="s">
         <v>23</v>
@@ -10549,10 +10569,10 @@
     </row>
     <row r="183" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
+        <v>638</v>
+      </c>
+      <c r="B183" s="2" t="s">
         <v>639</v>
-      </c>
-      <c r="B183" s="2" t="s">
-        <v>640</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>11</v>
@@ -10564,7 +10584,7 @@
       <c r="F183" s="2"/>
       <c r="G183" s="2"/>
       <c r="H183" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I183" s="2" t="s">
         <v>196</v>
@@ -10582,7 +10602,7 @@
         <v>19</v>
       </c>
       <c r="N183" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O183" s="2" t="s">
         <v>23</v>
@@ -10590,10 +10610,10 @@
     </row>
     <row r="184" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="B184" s="2" t="s">
         <v>641</v>
-      </c>
-      <c r="B184" s="2" t="s">
-        <v>642</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>11</v>
@@ -10605,7 +10625,7 @@
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I184" s="2" t="s">
         <v>197</v>
@@ -10623,7 +10643,7 @@
         <v>19</v>
       </c>
       <c r="N184" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O184" s="2" t="s">
         <v>23</v>
@@ -10631,10 +10651,10 @@
     </row>
     <row r="185" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
+        <v>642</v>
+      </c>
+      <c r="B185" s="2" t="s">
         <v>643</v>
-      </c>
-      <c r="B185" s="2" t="s">
-        <v>644</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>11</v>
@@ -10646,7 +10666,7 @@
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
       <c r="H185" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I185" s="2" t="s">
         <v>198</v>
@@ -10664,7 +10684,7 @@
         <v>19</v>
       </c>
       <c r="N185" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O185" s="2" t="s">
         <v>23</v>
@@ -10672,10 +10692,10 @@
     </row>
     <row r="186" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="B186" s="2" t="s">
         <v>645</v>
-      </c>
-      <c r="B186" s="2" t="s">
-        <v>646</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>11</v>
@@ -10687,7 +10707,7 @@
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
       <c r="H186" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I186" s="2" t="s">
         <v>199</v>
@@ -10705,7 +10725,7 @@
         <v>19</v>
       </c>
       <c r="N186" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O186" s="2" t="s">
         <v>23</v>
@@ -10713,10 +10733,10 @@
     </row>
     <row r="187" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
+        <v>646</v>
+      </c>
+      <c r="B187" s="2" t="s">
         <v>647</v>
-      </c>
-      <c r="B187" s="2" t="s">
-        <v>648</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>11</v>
@@ -10728,7 +10748,7 @@
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
       <c r="H187" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I187" s="2" t="s">
         <v>200</v>
@@ -10746,7 +10766,7 @@
         <v>19</v>
       </c>
       <c r="N187" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O187" s="2" t="s">
         <v>23</v>
@@ -10754,10 +10774,10 @@
     </row>
     <row r="188" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B188" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="B188" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>11</v>
@@ -10769,7 +10789,7 @@
       <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I188" s="2" t="s">
         <v>201</v>
@@ -10787,7 +10807,7 @@
         <v>19</v>
       </c>
       <c r="N188" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O188" s="2" t="s">
         <v>23</v>
@@ -10795,10 +10815,10 @@
     </row>
     <row r="189" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
+        <v>650</v>
+      </c>
+      <c r="B189" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B189" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>11</v>
@@ -10810,7 +10830,7 @@
       <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I189" s="2" t="s">
         <v>202</v>
@@ -10828,7 +10848,7 @@
         <v>19</v>
       </c>
       <c r="N189" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O189" s="2" t="s">
         <v>23</v>
@@ -10836,10 +10856,10 @@
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B190" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="B190" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>11</v>
@@ -10851,7 +10871,7 @@
       <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I190" s="2" t="s">
         <v>203</v>
@@ -10869,7 +10889,7 @@
         <v>19</v>
       </c>
       <c r="N190" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O190" s="2" t="s">
         <v>23</v>
@@ -10877,10 +10897,10 @@
     </row>
     <row r="191" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B191" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B191" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>11</v>
@@ -10892,7 +10912,7 @@
       <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I191" s="2" t="s">
         <v>204</v>
@@ -10910,7 +10930,7 @@
         <v>19</v>
       </c>
       <c r="N191" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O191" s="2" t="s">
         <v>23</v>
@@ -10918,10 +10938,10 @@
     </row>
     <row r="192" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B192" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>11</v>
@@ -10933,7 +10953,7 @@
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I192" s="2" t="s">
         <v>205</v>
@@ -10951,7 +10971,7 @@
         <v>19</v>
       </c>
       <c r="N192" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O192" s="2" t="s">
         <v>23</v>
@@ -10959,10 +10979,10 @@
     </row>
     <row r="193" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
+        <v>658</v>
+      </c>
+      <c r="B193" s="2" t="s">
         <v>659</v>
-      </c>
-      <c r="B193" s="2" t="s">
-        <v>660</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>11</v>
@@ -10974,7 +10994,7 @@
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I193" s="2" t="s">
         <v>206</v>
@@ -10992,7 +11012,7 @@
         <v>19</v>
       </c>
       <c r="N193" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O193" s="2" t="s">
         <v>23</v>
@@ -11000,10 +11020,10 @@
     </row>
     <row r="194" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>13</v>
@@ -11015,7 +11035,7 @@
       <c r="F194" s="2"/>
       <c r="G194" s="2"/>
       <c r="H194" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I194" s="2" t="s">
         <v>207</v>
@@ -11033,7 +11053,7 @@
         <v>19</v>
       </c>
       <c r="N194" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O194" s="2" t="s">
         <v>23</v>
@@ -11041,10 +11061,10 @@
     </row>
     <row r="195" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B195" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B195" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>13</v>
@@ -11056,7 +11076,7 @@
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
       <c r="H195" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I195" s="2" t="s">
         <v>209</v>
@@ -11074,7 +11094,7 @@
         <v>19</v>
       </c>
       <c r="N195" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O195" s="2" t="s">
         <v>23</v>
@@ -11082,22 +11102,22 @@
     </row>
     <row r="196" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B196" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>162</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E196" s="2"/>
       <c r="F196" s="2"/>
       <c r="G196" s="2"/>
       <c r="H196" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I196" s="2" t="s">
         <v>210</v>
@@ -11115,7 +11135,7 @@
         <v>19</v>
       </c>
       <c r="N196" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O196" s="2" t="s">
         <v>23</v>
@@ -11123,10 +11143,10 @@
     </row>
     <row r="197" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
+        <v>666</v>
+      </c>
+      <c r="B197" s="2" t="s">
         <v>667</v>
-      </c>
-      <c r="B197" s="2" t="s">
-        <v>668</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>162</v>
@@ -11138,10 +11158,10 @@
       <c r="F197" s="2"/>
       <c r="G197" s="2"/>
       <c r="H197" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I197" s="2" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="J197" s="2">
         <v>1</v>
@@ -11156,7 +11176,7 @@
         <v>19</v>
       </c>
       <c r="N197" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O197" s="2" t="s">
         <v>23</v>
@@ -11164,10 +11184,10 @@
     </row>
     <row r="198" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
+        <v>669</v>
+      </c>
+      <c r="B198" s="2" t="s">
         <v>670</v>
-      </c>
-      <c r="B198" s="2" t="s">
-        <v>671</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>11</v>
@@ -11179,10 +11199,10 @@
       <c r="F198" s="2"/>
       <c r="G198" s="2"/>
       <c r="H198" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I198" s="2" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J198" s="2">
         <v>1</v>
@@ -11197,7 +11217,7 @@
         <v>19</v>
       </c>
       <c r="N198" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O198" s="2" t="s">
         <v>23</v>
@@ -11205,10 +11225,10 @@
     </row>
     <row r="199" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="B199" s="2" t="s">
         <v>673</v>
-      </c>
-      <c r="B199" s="2" t="s">
-        <v>674</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>80</v>
@@ -11220,7 +11240,7 @@
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I199" s="2" t="s">
         <v>211</v>
@@ -11238,7 +11258,7 @@
         <v>19</v>
       </c>
       <c r="N199" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O199" s="2" t="s">
         <v>23</v>
@@ -11246,10 +11266,10 @@
     </row>
     <row r="200" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
+        <v>674</v>
+      </c>
+      <c r="B200" s="2" t="s">
         <v>675</v>
-      </c>
-      <c r="B200" s="2" t="s">
-        <v>676</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>11</v>
@@ -11261,7 +11281,7 @@
       <c r="F200" s="2"/>
       <c r="G200" s="2"/>
       <c r="H200" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I200" s="2" t="s">
         <v>212</v>
@@ -11279,7 +11299,7 @@
         <v>19</v>
       </c>
       <c r="N200" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O200" s="2" t="s">
         <v>23</v>
@@ -11287,10 +11307,10 @@
     </row>
     <row r="201" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="B201" s="2" t="s">
         <v>677</v>
-      </c>
-      <c r="B201" s="2" t="s">
-        <v>678</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>80</v>
@@ -11302,7 +11322,7 @@
       <c r="F201" s="2"/>
       <c r="G201" s="2"/>
       <c r="H201" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I201" s="2" t="s">
         <v>213</v>
@@ -11320,7 +11340,7 @@
         <v>19</v>
       </c>
       <c r="N201" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O201" s="2" t="s">
         <v>23</v>
@@ -11328,10 +11348,10 @@
     </row>
     <row r="202" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
+        <v>678</v>
+      </c>
+      <c r="B202" s="2" t="s">
         <v>679</v>
-      </c>
-      <c r="B202" s="2" t="s">
-        <v>680</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>11</v>
@@ -11343,7 +11363,7 @@
       <c r="F202" s="2"/>
       <c r="G202" s="2"/>
       <c r="H202" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I202" s="2" t="s">
         <v>214</v>
@@ -11361,7 +11381,7 @@
         <v>19</v>
       </c>
       <c r="N202" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O202" s="2" t="s">
         <v>23</v>
@@ -11369,10 +11389,10 @@
     </row>
     <row r="203" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
+        <v>680</v>
+      </c>
+      <c r="B203" s="2" t="s">
         <v>681</v>
-      </c>
-      <c r="B203" s="2" t="s">
-        <v>682</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>33</v>
@@ -11384,7 +11404,7 @@
       <c r="F203" s="2"/>
       <c r="G203" s="2"/>
       <c r="H203" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I203" s="2" t="s">
         <v>215</v>
@@ -11402,7 +11422,7 @@
         <v>19</v>
       </c>
       <c r="N203" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O203" s="2" t="s">
         <v>23</v>
@@ -11410,10 +11430,10 @@
     </row>
     <row r="204" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B204" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="B204" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>11</v>
@@ -11425,7 +11445,7 @@
       <c r="F204" s="2"/>
       <c r="G204" s="2"/>
       <c r="H204" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I204" s="2" t="s">
         <v>216</v>
@@ -11443,7 +11463,7 @@
         <v>19</v>
       </c>
       <c r="N204" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O204" s="2" t="s">
         <v>23</v>
@@ -11451,10 +11471,10 @@
     </row>
     <row r="205" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B205" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="B205" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>11</v>
@@ -11466,7 +11486,7 @@
       <c r="F205" s="2"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I205" s="2" t="s">
         <v>217</v>
@@ -11484,7 +11504,7 @@
         <v>19</v>
       </c>
       <c r="N205" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O205" s="2" t="s">
         <v>23</v>
@@ -11492,10 +11512,10 @@
     </row>
     <row r="206" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="B206" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B206" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>11</v>
@@ -11507,7 +11527,7 @@
       <c r="F206" s="2"/>
       <c r="G206" s="2"/>
       <c r="H206" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I206" s="2" t="s">
         <v>218</v>
@@ -11525,7 +11545,7 @@
         <v>19</v>
       </c>
       <c r="N206" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O206" s="2" t="s">
         <v>23</v>
@@ -11533,10 +11553,10 @@
     </row>
     <row r="207" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="B207" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="B207" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>11</v>
@@ -11548,7 +11568,7 @@
       <c r="F207" s="2"/>
       <c r="G207" s="2"/>
       <c r="H207" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I207" s="2" t="s">
         <v>219</v>
@@ -11566,7 +11586,7 @@
         <v>19</v>
       </c>
       <c r="N207" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O207" s="2" t="s">
         <v>23</v>
@@ -11574,10 +11594,10 @@
     </row>
     <row r="208" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
+        <v>690</v>
+      </c>
+      <c r="B208" s="2" t="s">
         <v>691</v>
-      </c>
-      <c r="B208" s="2" t="s">
-        <v>692</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>11</v>
@@ -11589,7 +11609,7 @@
       <c r="F208" s="2"/>
       <c r="G208" s="2"/>
       <c r="H208" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I208" s="2" t="s">
         <v>220</v>
@@ -11607,7 +11627,7 @@
         <v>19</v>
       </c>
       <c r="N208" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O208" s="2" t="s">
         <v>23</v>
@@ -11615,10 +11635,10 @@
     </row>
     <row r="209" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B209" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>11</v>
@@ -11630,7 +11650,7 @@
       <c r="F209" s="2"/>
       <c r="G209" s="2"/>
       <c r="H209" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I209" s="2" t="s">
         <v>221</v>
@@ -11648,7 +11668,7 @@
         <v>19</v>
       </c>
       <c r="N209" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O209" s="2" t="s">
         <v>23</v>
@@ -11656,10 +11676,10 @@
     </row>
     <row r="210" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B210" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>11</v>
@@ -11671,7 +11691,7 @@
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I210" s="2" t="s">
         <v>222</v>
@@ -11689,7 +11709,7 @@
         <v>19</v>
       </c>
       <c r="N210" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O210" s="2" t="s">
         <v>23</v>
@@ -11697,10 +11717,10 @@
     </row>
     <row r="211" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B211" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="B211" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>11</v>
@@ -11712,7 +11732,7 @@
       <c r="F211" s="2"/>
       <c r="G211" s="2"/>
       <c r="H211" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I211" s="2" t="s">
         <v>223</v>
@@ -11730,7 +11750,7 @@
         <v>19</v>
       </c>
       <c r="N211" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O211" s="2" t="s">
         <v>23</v>
@@ -11738,10 +11758,10 @@
     </row>
     <row r="212" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B212" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="B212" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>11</v>
@@ -11753,7 +11773,7 @@
       <c r="F212" s="2"/>
       <c r="G212" s="2"/>
       <c r="H212" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I212" s="2" t="s">
         <v>224</v>
@@ -11771,7 +11791,7 @@
         <v>19</v>
       </c>
       <c r="N212" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O212" s="2" t="s">
         <v>23</v>
@@ -11779,10 +11799,10 @@
     </row>
     <row r="213" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="B213" s="2" t="s">
         <v>701</v>
-      </c>
-      <c r="B213" s="2" t="s">
-        <v>702</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>11</v>
@@ -11794,7 +11814,7 @@
       <c r="F213" s="2"/>
       <c r="G213" s="2"/>
       <c r="H213" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I213" s="2" t="s">
         <v>225</v>
@@ -11812,7 +11832,7 @@
         <v>19</v>
       </c>
       <c r="N213" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O213" s="2" t="s">
         <v>23</v>
@@ -11820,10 +11840,10 @@
     </row>
     <row r="214" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="B214" s="2" t="s">
         <v>703</v>
-      </c>
-      <c r="B214" s="2" t="s">
-        <v>704</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>11</v>
@@ -11835,7 +11855,7 @@
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I214" s="2" t="s">
         <v>226</v>
@@ -11853,7 +11873,7 @@
         <v>19</v>
       </c>
       <c r="N214" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O214" s="2" t="s">
         <v>23</v>
@@ -11861,10 +11881,10 @@
     </row>
     <row r="215" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B215" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="B215" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>11</v>
@@ -11876,7 +11896,7 @@
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I215" s="2" t="s">
         <v>227</v>
@@ -11894,7 +11914,7 @@
         <v>19</v>
       </c>
       <c r="N215" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O215" s="2" t="s">
         <v>23</v>
@@ -11902,10 +11922,10 @@
     </row>
     <row r="216" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="B216" s="2" t="s">
         <v>707</v>
-      </c>
-      <c r="B216" s="2" t="s">
-        <v>708</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>11</v>
@@ -11917,7 +11937,7 @@
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I216" s="2" t="s">
         <v>228</v>
@@ -11935,7 +11955,7 @@
         <v>19</v>
       </c>
       <c r="N216" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O216" s="2" t="s">
         <v>23</v>
@@ -11943,10 +11963,10 @@
     </row>
     <row r="217" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="B217" s="2" t="s">
         <v>709</v>
-      </c>
-      <c r="B217" s="2" t="s">
-        <v>710</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>11</v>
@@ -11958,7 +11978,7 @@
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I217" s="2" t="s">
         <v>229</v>
@@ -11976,7 +11996,7 @@
         <v>19</v>
       </c>
       <c r="N217" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O217" s="2" t="s">
         <v>23</v>
@@ -11984,10 +12004,10 @@
     </row>
     <row r="218" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B218" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B218" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>11</v>
@@ -11999,7 +12019,7 @@
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I218" s="2" t="s">
         <v>230</v>
@@ -12017,7 +12037,7 @@
         <v>19</v>
       </c>
       <c r="N218" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O218" s="2" t="s">
         <v>23</v>
@@ -12025,10 +12045,10 @@
     </row>
     <row r="219" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B219" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="B219" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>11</v>
@@ -12040,7 +12060,7 @@
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I219" s="2" t="s">
         <v>231</v>
@@ -12058,7 +12078,7 @@
         <v>19</v>
       </c>
       <c r="N219" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O219" s="2" t="s">
         <v>23</v>
@@ -12066,10 +12086,10 @@
     </row>
     <row r="220" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B220" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="B220" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>11</v>
@@ -12081,7 +12101,7 @@
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I220" s="2" t="s">
         <v>232</v>
@@ -12099,7 +12119,7 @@
         <v>19</v>
       </c>
       <c r="N220" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O220" s="2" t="s">
         <v>23</v>
@@ -12107,10 +12127,10 @@
     </row>
     <row r="221" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="B221" s="2" t="s">
         <v>717</v>
-      </c>
-      <c r="B221" s="2" t="s">
-        <v>718</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>11</v>
@@ -12122,7 +12142,7 @@
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I221" s="2" t="s">
         <v>233</v>
@@ -12140,7 +12160,7 @@
         <v>19</v>
       </c>
       <c r="N221" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O221" s="2" t="s">
         <v>23</v>
@@ -12148,10 +12168,10 @@
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="B222" s="2" t="s">
         <v>719</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>720</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>11</v>
@@ -12163,7 +12183,7 @@
       <c r="F222" s="2"/>
       <c r="G222" s="2"/>
       <c r="H222" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I222" s="2" t="s">
         <v>234</v>
@@ -12181,7 +12201,7 @@
         <v>19</v>
       </c>
       <c r="N222" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O222" s="2" t="s">
         <v>23</v>
@@ -12189,10 +12209,10 @@
     </row>
     <row r="223" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B223" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>11</v>
@@ -12204,7 +12224,7 @@
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I223" s="2" t="s">
         <v>235</v>
@@ -12222,7 +12242,7 @@
         <v>19</v>
       </c>
       <c r="N223" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O223" s="2" t="s">
         <v>23</v>
@@ -12230,10 +12250,10 @@
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="B224" s="2" t="s">
         <v>723</v>
-      </c>
-      <c r="B224" s="2" t="s">
-        <v>724</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>11</v>
@@ -12245,7 +12265,7 @@
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I224" s="2" t="s">
         <v>236</v>
@@ -12263,7 +12283,7 @@
         <v>19</v>
       </c>
       <c r="N224" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O224" s="2" t="s">
         <v>23</v>
@@ -12271,10 +12291,10 @@
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B225" s="2" t="s">
         <v>725</v>
-      </c>
-      <c r="B225" s="2" t="s">
-        <v>726</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>11</v>
@@ -12286,7 +12306,7 @@
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I225" s="2" t="s">
         <v>237</v>
@@ -12304,7 +12324,7 @@
         <v>19</v>
       </c>
       <c r="N225" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O225" s="2" t="s">
         <v>23</v>
@@ -12312,10 +12332,10 @@
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B226" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="B226" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>11</v>
@@ -12327,7 +12347,7 @@
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I226" s="2" t="s">
         <v>238</v>
@@ -12345,7 +12365,7 @@
         <v>19</v>
       </c>
       <c r="N226" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O226" s="2" t="s">
         <v>23</v>
@@ -12353,10 +12373,10 @@
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B227" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="B227" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>11</v>
@@ -12368,7 +12388,7 @@
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I227" s="2" t="s">
         <v>239</v>
@@ -12386,7 +12406,7 @@
         <v>19</v>
       </c>
       <c r="N227" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O227" s="2" t="s">
         <v>23</v>
@@ -12394,10 +12414,10 @@
     </row>
     <row r="228" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B228" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="B228" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>11</v>
@@ -12409,7 +12429,7 @@
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I228" s="2" t="s">
         <v>240</v>
@@ -12427,7 +12447,7 @@
         <v>19</v>
       </c>
       <c r="N228" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O228" s="2" t="s">
         <v>23</v>
@@ -12435,10 +12455,10 @@
     </row>
     <row r="229" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="B229" s="2" t="s">
         <v>733</v>
-      </c>
-      <c r="B229" s="2" t="s">
-        <v>734</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>11</v>
@@ -12450,7 +12470,7 @@
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
       <c r="H229" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I229" s="2" t="s">
         <v>241</v>
@@ -12468,7 +12488,7 @@
         <v>19</v>
       </c>
       <c r="N229" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O229" s="2" t="s">
         <v>23</v>
@@ -12476,10 +12496,10 @@
     </row>
     <row r="230" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
+        <v>734</v>
+      </c>
+      <c r="B230" s="2" t="s">
         <v>735</v>
-      </c>
-      <c r="B230" s="2" t="s">
-        <v>736</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>11</v>
@@ -12491,7 +12511,7 @@
       <c r="F230" s="2"/>
       <c r="G230" s="2"/>
       <c r="H230" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I230" s="2" t="s">
         <v>242</v>
@@ -12509,7 +12529,7 @@
         <v>19</v>
       </c>
       <c r="N230" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O230" s="2" t="s">
         <v>23</v>
@@ -12517,27 +12537,27 @@
     </row>
     <row r="231" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
+        <v>736</v>
+      </c>
+      <c r="B231" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="C231" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="C231" s="2" t="s">
+      <c r="D231" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="D231" s="2" t="s">
-        <v>740</v>
-      </c>
       <c r="E231" s="2" t="s">
-        <v>871</v>
+        <v>867</v>
       </c>
       <c r="F231" s="2"/>
       <c r="G231" s="2"/>
       <c r="H231" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I231" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J231" s="2">
         <v>1</v>
@@ -12552,7 +12572,7 @@
         <v>19</v>
       </c>
       <c r="N231" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O231" s="2" t="s">
         <v>23</v>
@@ -12560,27 +12580,29 @@
     </row>
     <row r="232" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B232" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="B232" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D232" s="2"/>
+      <c r="D232" s="6" t="s">
+        <v>873</v>
+      </c>
       <c r="E232" s="2" t="s">
-        <v>870</v>
+        <v>866</v>
       </c>
       <c r="F232" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G232" s="2"/>
       <c r="H232" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I232" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="J232" s="2">
         <v>1</v>
@@ -12595,7 +12617,7 @@
         <v>19</v>
       </c>
       <c r="N232" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O232" s="2" t="s">
         <v>23</v>
@@ -12603,20 +12625,22 @@
     </row>
     <row r="233" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D233" s="2"/>
+      <c r="D233" s="7" t="s">
+        <v>874</v>
+      </c>
       <c r="E233" s="2"/>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I233" s="2"/>
       <c r="J233" s="2">
@@ -12632,7 +12656,7 @@
         <v>19</v>
       </c>
       <c r="N233" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O233" s="2" t="s">
         <v>23</v>
@@ -12640,20 +12664,22 @@
     </row>
     <row r="234" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
+        <v>744</v>
+      </c>
+      <c r="B234" s="2" t="s">
         <v>745</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>746</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D234" s="2"/>
+      <c r="D234" s="7" t="s">
+        <v>875</v>
+      </c>
       <c r="E234" s="2"/>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I234" s="2"/>
       <c r="J234" s="2">
@@ -12669,7 +12695,7 @@
         <v>19</v>
       </c>
       <c r="N234" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O234" s="2" t="s">
         <v>23</v>
@@ -12677,20 +12703,22 @@
     </row>
     <row r="235" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
+        <v>746</v>
+      </c>
+      <c r="B235" s="2" t="s">
         <v>747</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>748</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D235" s="2"/>
+      <c r="D235" s="7" t="s">
+        <v>875</v>
+      </c>
       <c r="E235" s="2"/>
       <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I235" s="2"/>
       <c r="J235" s="2">
@@ -12706,7 +12734,7 @@
         <v>19</v>
       </c>
       <c r="N235" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O235" s="2" t="s">
         <v>23</v>
@@ -12714,20 +12742,22 @@
     </row>
     <row r="236" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="B236" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="B236" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D236" s="2"/>
+      <c r="D236" s="7" t="s">
+        <v>875</v>
+      </c>
       <c r="E236" s="2"/>
       <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I236" s="2"/>
       <c r="J236" s="2">
@@ -12743,7 +12773,7 @@
         <v>19</v>
       </c>
       <c r="N236" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O236" s="2" t="s">
         <v>23</v>
@@ -12751,20 +12781,22 @@
     </row>
     <row r="237" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B237" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="B237" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D237" s="2"/>
+      <c r="D237" s="7" t="s">
+        <v>875</v>
+      </c>
       <c r="E237" s="2"/>
       <c r="F237" s="2"/>
       <c r="G237" s="2"/>
       <c r="H237" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I237" s="2"/>
       <c r="J237" s="2">
@@ -12780,7 +12812,7 @@
         <v>19</v>
       </c>
       <c r="N237" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O237" s="2" t="s">
         <v>23</v>
@@ -12788,20 +12820,22 @@
     </row>
     <row r="238" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B238" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="B238" s="2" t="s">
+      <c r="C238" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="C238" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D238" s="2"/>
+      <c r="D238" s="9" t="s">
+        <v>877</v>
+      </c>
       <c r="E238" s="2"/>
       <c r="F238" s="2"/>
       <c r="G238" s="2"/>
       <c r="H238" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I238" s="2"/>
       <c r="J238" s="2">
@@ -12817,7 +12851,7 @@
         <v>19</v>
       </c>
       <c r="N238" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O238" s="2" t="s">
         <v>23</v>
@@ -12825,13 +12859,13 @@
     </row>
     <row r="239" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
+        <v>755</v>
+      </c>
+      <c r="B239" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="B239" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>16</v>
+      <c r="C239" s="8" t="s">
+        <v>876</v>
       </c>
       <c r="D239" s="2" t="s">
         <v>17</v>
@@ -12840,7 +12874,7 @@
       <c r="F239" s="2"/>
       <c r="G239" s="2"/>
       <c r="H239" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I239" s="2"/>
       <c r="J239" s="2">
@@ -12856,7 +12890,7 @@
         <v>19</v>
       </c>
       <c r="N239" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O239" s="2" t="s">
         <v>23</v>
@@ -12864,13 +12898,13 @@
     </row>
     <row r="240" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="B240" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="B240" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>16</v>
+      <c r="C240" s="8" t="s">
+        <v>876</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>17</v>
@@ -12879,7 +12913,7 @@
       <c r="F240" s="2"/>
       <c r="G240" s="2"/>
       <c r="H240" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I240" s="2"/>
       <c r="J240" s="2">
@@ -12895,7 +12929,7 @@
         <v>19</v>
       </c>
       <c r="N240" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O240" s="2" t="s">
         <v>23</v>
@@ -12903,20 +12937,22 @@
     </row>
     <row r="241" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B241" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="B241" s="2" t="s">
-        <v>761</v>
-      </c>
       <c r="C241" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="D241" s="2"/>
+        <v>754</v>
+      </c>
+      <c r="D241" s="10" t="s">
+        <v>877</v>
+      </c>
       <c r="E241" s="2"/>
       <c r="F241" s="2"/>
       <c r="G241" s="2"/>
       <c r="H241" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I241" s="2"/>
       <c r="J241" s="2">
@@ -12932,7 +12968,7 @@
         <v>19</v>
       </c>
       <c r="N241" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O241" s="2" t="s">
         <v>23</v>
@@ -12940,13 +12976,13 @@
     </row>
     <row r="242" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
+        <v>761</v>
+      </c>
+      <c r="B242" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>763</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>16</v>
+      <c r="C242" s="8" t="s">
+        <v>876</v>
       </c>
       <c r="D242" s="2" t="s">
         <v>17</v>
@@ -12955,7 +12991,7 @@
       <c r="F242" s="2"/>
       <c r="G242" s="2"/>
       <c r="H242" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I242" s="2"/>
       <c r="J242" s="2">
@@ -12971,7 +13007,7 @@
         <v>19</v>
       </c>
       <c r="N242" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O242" s="2" t="s">
         <v>23</v>
@@ -12979,13 +13015,13 @@
     </row>
     <row r="243" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
+        <v>763</v>
+      </c>
+      <c r="B243" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>765</v>
-      </c>
       <c r="C243" s="2" t="s">
-        <v>16</v>
+        <v>876</v>
       </c>
       <c r="D243" s="2" t="s">
         <v>17</v>
@@ -12994,7 +13030,7 @@
       <c r="F243" s="2"/>
       <c r="G243" s="2"/>
       <c r="H243" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I243" s="2"/>
       <c r="J243" s="2">
@@ -13010,7 +13046,7 @@
         <v>19</v>
       </c>
       <c r="N243" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O243" s="2" t="s">
         <v>23</v>
@@ -13018,27 +13054,29 @@
     </row>
     <row r="244" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B244" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="B244" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="D244" s="2"/>
+      <c r="D244" s="11" t="s">
+        <v>873</v>
+      </c>
       <c r="E244" s="2" t="s">
-        <v>869</v>
+        <v>865</v>
       </c>
       <c r="F244" s="2" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G244" s="2"/>
       <c r="H244" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I244" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J244" s="2">
         <v>1</v>
@@ -13053,7 +13091,7 @@
         <v>19</v>
       </c>
       <c r="N244" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O244" s="2" t="s">
         <v>23</v>
@@ -13061,20 +13099,22 @@
     </row>
     <row r="245" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D245" s="2"/>
+      <c r="D245" s="12" t="s">
+        <v>877</v>
+      </c>
       <c r="E245" s="2"/>
       <c r="F245" s="2"/>
       <c r="G245" s="2"/>
       <c r="H245" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I245" s="2"/>
       <c r="J245" s="2">
@@ -13090,7 +13130,7 @@
         <v>19</v>
       </c>
       <c r="N245" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O245" s="2" t="s">
         <v>23</v>
@@ -13098,20 +13138,22 @@
     </row>
     <row r="246" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="B246" s="2" t="s">
         <v>770</v>
-      </c>
-      <c r="B246" s="2" t="s">
-        <v>771</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D246" s="2"/>
+      <c r="D246" s="13" t="s">
+        <v>875</v>
+      </c>
       <c r="E246" s="2"/>
       <c r="F246" s="2"/>
       <c r="G246" s="2"/>
       <c r="H246" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I246" s="2"/>
       <c r="J246" s="2">
@@ -13127,7 +13169,7 @@
         <v>19</v>
       </c>
       <c r="N246" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O246" s="2" t="s">
         <v>23</v>
@@ -13135,20 +13177,22 @@
     </row>
     <row r="247" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
+        <v>771</v>
+      </c>
+      <c r="B247" s="2" t="s">
         <v>772</v>
-      </c>
-      <c r="B247" s="2" t="s">
-        <v>773</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D247" s="2"/>
+      <c r="D247" s="13" t="s">
+        <v>875</v>
+      </c>
       <c r="E247" s="2"/>
       <c r="F247" s="2"/>
       <c r="G247" s="2"/>
       <c r="H247" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I247" s="2"/>
       <c r="J247" s="2">
@@ -13164,7 +13208,7 @@
         <v>19</v>
       </c>
       <c r="N247" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O247" s="2" t="s">
         <v>23</v>
@@ -13172,20 +13216,22 @@
     </row>
     <row r="248" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="B248" s="2" t="s">
         <v>774</v>
-      </c>
-      <c r="B248" s="2" t="s">
-        <v>775</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D248" s="2"/>
+      <c r="D248" s="13" t="s">
+        <v>875</v>
+      </c>
       <c r="E248" s="2"/>
       <c r="F248" s="2"/>
       <c r="G248" s="2"/>
       <c r="H248" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I248" s="2"/>
       <c r="J248" s="2">
@@ -13201,7 +13247,7 @@
         <v>19</v>
       </c>
       <c r="N248" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O248" s="2" t="s">
         <v>23</v>
@@ -13209,20 +13255,22 @@
     </row>
     <row r="249" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
+        <v>775</v>
+      </c>
+      <c r="B249" s="2" t="s">
         <v>776</v>
-      </c>
-      <c r="B249" s="2" t="s">
-        <v>777</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="D249" s="2"/>
+      <c r="D249" s="13" t="s">
+        <v>875</v>
+      </c>
       <c r="E249" s="2"/>
       <c r="F249" s="2"/>
       <c r="G249" s="2"/>
       <c r="H249" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I249" s="2"/>
       <c r="J249" s="2">
@@ -13238,7 +13286,7 @@
         <v>19</v>
       </c>
       <c r="N249" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O249" s="2" t="s">
         <v>23</v>
@@ -13246,20 +13294,22 @@
     </row>
     <row r="250" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B250" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C250" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="C250" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D250" s="2"/>
+      <c r="D250" s="14" t="s">
+        <v>877</v>
+      </c>
       <c r="E250" s="2"/>
       <c r="F250" s="2"/>
       <c r="G250" s="2"/>
       <c r="H250" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I250" s="2"/>
       <c r="J250" s="2">
@@ -13275,7 +13325,7 @@
         <v>19</v>
       </c>
       <c r="N250" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O250" s="2" t="s">
         <v>23</v>
@@ -13283,20 +13333,22 @@
     </row>
     <row r="251" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
+        <v>779</v>
+      </c>
+      <c r="B251" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="B251" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D251" s="2"/>
+      <c r="C251" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="D251" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E251" s="2"/>
       <c r="F251" s="2"/>
       <c r="G251" s="2"/>
       <c r="H251" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I251" s="2"/>
       <c r="J251" s="2">
@@ -13312,7 +13364,7 @@
         <v>19</v>
       </c>
       <c r="N251" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O251" s="2" t="s">
         <v>23</v>
@@ -13320,20 +13372,22 @@
     </row>
     <row r="252" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
+        <v>781</v>
+      </c>
+      <c r="B252" s="2" t="s">
         <v>782</v>
       </c>
-      <c r="B252" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D252" s="2"/>
+      <c r="C252" s="15" t="s">
+        <v>876</v>
+      </c>
+      <c r="D252" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E252" s="2"/>
       <c r="F252" s="2"/>
       <c r="G252" s="2"/>
       <c r="H252" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I252" s="2"/>
       <c r="J252" s="2">
@@ -13349,7 +13403,7 @@
         <v>19</v>
       </c>
       <c r="N252" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O252" s="2" t="s">
         <v>23</v>
@@ -13357,20 +13411,22 @@
     </row>
     <row r="253" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="D253" s="2"/>
+        <v>778</v>
+      </c>
+      <c r="D253" s="14" t="s">
+        <v>877</v>
+      </c>
       <c r="E253" s="2"/>
       <c r="F253" s="2"/>
       <c r="G253" s="2"/>
       <c r="H253" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I253" s="2"/>
       <c r="J253" s="2">
@@ -13386,7 +13442,7 @@
         <v>19</v>
       </c>
       <c r="N253" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O253" s="2" t="s">
         <v>23</v>
@@ -13394,20 +13450,22 @@
     </row>
     <row r="254" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
+        <v>784</v>
+      </c>
+      <c r="B254" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="B254" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D254" s="2"/>
+      <c r="C254" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="D254" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E254" s="2"/>
       <c r="F254" s="2"/>
       <c r="G254" s="2"/>
       <c r="H254" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I254" s="2"/>
       <c r="J254" s="2">
@@ -13423,7 +13481,7 @@
         <v>19</v>
       </c>
       <c r="N254" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O254" s="2" t="s">
         <v>23</v>
@@ -13431,20 +13489,22 @@
     </row>
     <row r="255" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
+        <v>786</v>
+      </c>
+      <c r="B255" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="B255" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D255" s="2"/>
+      <c r="C255" s="16" t="s">
+        <v>876</v>
+      </c>
+      <c r="D255" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="E255" s="2"/>
       <c r="F255" s="2"/>
       <c r="G255" s="2"/>
       <c r="H255" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I255" s="2"/>
       <c r="J255" s="2">
@@ -13460,7 +13520,7 @@
         <v>19</v>
       </c>
       <c r="N255" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O255" s="2" t="s">
         <v>23</v>
@@ -13468,31 +13528,31 @@
     </row>
     <row r="256" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="B256" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="B256" s="2" t="s">
+      <c r="C256" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D256" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="F256" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="D256" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E256" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="F256" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="G256" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I256" s="2" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="J256" s="2">
         <v>1</v>
@@ -13507,7 +13567,7 @@
         <v>19</v>
       </c>
       <c r="N256" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O256" s="2" t="s">
         <v>23</v>
@@ -13515,25 +13575,25 @@
     </row>
     <row r="257" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B257" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="B257" s="2" t="s">
-        <v>793</v>
-      </c>
       <c r="C257" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D257" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E257" s="2"/>
       <c r="F257" s="2"/>
       <c r="G257" s="2"/>
       <c r="H257" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I257" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="J257" s="2">
         <v>1</v>
@@ -13548,7 +13608,7 @@
         <v>19</v>
       </c>
       <c r="N257" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O257" s="2" t="s">
         <v>23</v>
@@ -13556,27 +13616,27 @@
     </row>
     <row r="258" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B258" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="B258" s="2" t="s">
-        <v>796</v>
-      </c>
       <c r="C258" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D258" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E258" s="2"/>
       <c r="F258" s="2"/>
       <c r="G258" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="H258" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I258" s="2" t="s">
         <v>797</v>
-      </c>
-      <c r="H258" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="I258" s="2" t="s">
-        <v>798</v>
       </c>
       <c r="J258" s="2">
         <v>1</v>
@@ -13591,7 +13651,7 @@
         <v>19</v>
       </c>
       <c r="N258" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O258" s="2" t="s">
         <v>23</v>
@@ -13599,25 +13659,25 @@
     </row>
     <row r="259" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B259" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="B259" s="2" t="s">
-        <v>800</v>
-      </c>
       <c r="C259" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D259" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D259" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E259" s="2"/>
       <c r="F259" s="2"/>
       <c r="G259" s="2"/>
       <c r="H259" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I259" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="J259" s="2">
         <v>1</v>
@@ -13632,7 +13692,7 @@
         <v>19</v>
       </c>
       <c r="N259" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O259" s="2" t="s">
         <v>23</v>
@@ -13640,25 +13700,25 @@
     </row>
     <row r="260" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B260" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="B260" s="2" t="s">
-        <v>803</v>
-      </c>
       <c r="C260" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D260" s="2" t="s">
         <v>249</v>
-      </c>
-      <c r="D260" s="2" t="s">
-        <v>250</v>
       </c>
       <c r="E260" s="2"/>
       <c r="F260" s="2"/>
       <c r="G260" s="2"/>
       <c r="H260" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I260" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J260" s="2">
         <v>1</v>
@@ -13673,7 +13733,7 @@
         <v>19</v>
       </c>
       <c r="N260" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O260" s="2" t="s">
         <v>23</v>
@@ -13681,25 +13741,25 @@
     </row>
     <row r="261" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="B261" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="B261" s="2" t="s">
-        <v>806</v>
-      </c>
       <c r="C261" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D261" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="D261" s="2" t="s">
-        <v>252</v>
       </c>
       <c r="E261" s="2"/>
       <c r="F261" s="2"/>
       <c r="G261" s="2"/>
       <c r="H261" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I261" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="J261" s="2">
         <v>1</v>
@@ -13714,7 +13774,7 @@
         <v>19</v>
       </c>
       <c r="N261" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O261" s="2" t="s">
         <v>23</v>
@@ -13722,10 +13782,10 @@
     </row>
     <row r="262" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
+        <v>807</v>
+      </c>
+      <c r="B262" s="2" t="s">
         <v>808</v>
-      </c>
-      <c r="B262" s="2" t="s">
-        <v>809</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>16</v>
@@ -13736,13 +13796,13 @@
       <c r="E262" s="2"/>
       <c r="F262" s="2"/>
       <c r="G262" s="2" t="s">
+        <v>809</v>
+      </c>
+      <c r="H262" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I262" s="2" t="s">
         <v>810</v>
-      </c>
-      <c r="H262" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="I262" s="2" t="s">
-        <v>811</v>
       </c>
       <c r="J262" s="2">
         <v>1</v>
@@ -13757,7 +13817,7 @@
         <v>19</v>
       </c>
       <c r="N262" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O262" s="2" t="s">
         <v>23</v>
@@ -13765,10 +13825,10 @@
     </row>
     <row r="263" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B263" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="B263" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>16</v>
@@ -13780,10 +13840,10 @@
       <c r="F263" s="2"/>
       <c r="G263" s="2"/>
       <c r="H263" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I263" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="J263" s="2">
         <v>1</v>
@@ -13798,7 +13858,7 @@
         <v>19</v>
       </c>
       <c r="N263" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O263" s="2" t="s">
         <v>23</v>
@@ -13806,10 +13866,10 @@
     </row>
     <row r="264" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B264" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="B264" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>16</v>
@@ -13821,10 +13881,10 @@
       <c r="F264" s="2"/>
       <c r="G264" s="2"/>
       <c r="H264" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I264" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="J264" s="2">
         <v>1</v>
@@ -13839,7 +13899,7 @@
         <v>19</v>
       </c>
       <c r="N264" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O264" s="2" t="s">
         <v>23</v>
@@ -13847,10 +13907,10 @@
     </row>
     <row r="265" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B265" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="B265" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>16</v>
@@ -13862,10 +13922,10 @@
       <c r="F265" s="2"/>
       <c r="G265" s="2"/>
       <c r="H265" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I265" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="J265" s="2">
         <v>1</v>
@@ -13880,7 +13940,7 @@
         <v>19</v>
       </c>
       <c r="N265" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O265" s="2" t="s">
         <v>23</v>
@@ -13888,25 +13948,25 @@
     </row>
     <row r="266" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
+        <v>820</v>
+      </c>
+      <c r="B266" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="B266" s="2" t="s">
-        <v>822</v>
-      </c>
       <c r="C266" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D266" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D266" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E266" s="2"/>
       <c r="F266" s="2"/>
       <c r="G266" s="2"/>
       <c r="H266" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I266" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="J266" s="2">
         <v>1</v>
@@ -13921,7 +13981,7 @@
         <v>19</v>
       </c>
       <c r="N266" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O266" s="2" t="s">
         <v>23</v>
@@ -13929,25 +13989,25 @@
     </row>
     <row r="267" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B267" s="2" t="s">
         <v>824</v>
       </c>
-      <c r="B267" s="2" t="s">
+      <c r="C267" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="C267" s="2" t="s">
+      <c r="D267" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="D267" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="E267" s="2"/>
       <c r="F267" s="2"/>
       <c r="G267" s="2"/>
       <c r="H267" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I267" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="J267" s="2">
         <v>1</v>
@@ -13962,7 +14022,7 @@
         <v>19</v>
       </c>
       <c r="N267" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O267" s="2" t="s">
         <v>23</v>
@@ -13970,10 +14030,10 @@
     </row>
     <row r="268" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
+        <v>828</v>
+      </c>
+      <c r="B268" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="B268" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>16</v>
@@ -13985,10 +14045,10 @@
       <c r="F268" s="2"/>
       <c r="G268" s="2"/>
       <c r="H268" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I268" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="J268" s="2">
         <v>1</v>
@@ -14003,7 +14063,7 @@
         <v>19</v>
       </c>
       <c r="N268" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O268" s="2" t="s">
         <v>23</v>
@@ -14011,25 +14071,25 @@
     </row>
     <row r="269" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="B269" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="B269" s="2" t="s">
-        <v>833</v>
-      </c>
       <c r="C269" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D269" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D269" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E269" s="2"/>
       <c r="F269" s="2"/>
       <c r="G269" s="2"/>
       <c r="H269" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I269" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="J269" s="2">
         <v>1</v>
@@ -14044,7 +14104,7 @@
         <v>19</v>
       </c>
       <c r="N269" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O269" s="2" t="s">
         <v>23</v>
@@ -14052,25 +14112,25 @@
     </row>
     <row r="270" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B270" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="B270" s="2" t="s">
-        <v>836</v>
-      </c>
       <c r="C270" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D270" s="2" t="s">
         <v>253</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>254</v>
       </c>
       <c r="E270" s="2"/>
       <c r="F270" s="2"/>
       <c r="G270" s="2"/>
       <c r="H270" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I270" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="J270" s="2">
         <v>1</v>
@@ -14085,7 +14145,7 @@
         <v>19</v>
       </c>
       <c r="N270" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O270" s="2" t="s">
         <v>23</v>
@@ -14093,31 +14153,31 @@
     </row>
     <row r="271" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
+        <v>837</v>
+      </c>
+      <c r="B271" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="B271" s="2" t="s">
+      <c r="C271" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E271" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="C271" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E271" s="2" t="s">
+      <c r="F271" s="2" t="s">
         <v>840</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>841</v>
       </c>
       <c r="G271" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H271" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I271" s="2" t="s">
-        <v>866</v>
+        <v>862</v>
       </c>
       <c r="J271" s="2">
         <v>1</v>
@@ -14132,7 +14192,7 @@
         <v>19</v>
       </c>
       <c r="N271" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O271" s="2" t="s">
         <v>23</v>
@@ -14143,7 +14203,7 @@
         <v>208</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>13</v>
@@ -14154,13 +14214,13 @@
       <c r="E272" s="2"/>
       <c r="F272" s="2"/>
       <c r="G272" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H272" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I272" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="H272" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="I272" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="J272" s="2">
         <v>0</v>
@@ -14175,7 +14235,7 @@
         <v>19</v>
       </c>
       <c r="N272" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O272" s="2" t="s">
         <v>23</v>
@@ -14183,10 +14243,10 @@
     </row>
     <row r="273" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>13</v>
@@ -14197,13 +14257,13 @@
       <c r="E273" s="2"/>
       <c r="F273" s="2"/>
       <c r="G273" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H273" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I273" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="H273" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="I273" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="J273" s="2">
         <v>0</v>
@@ -14218,7 +14278,7 @@
         <v>19</v>
       </c>
       <c r="N273" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O273" s="2" t="s">
         <v>23</v>
@@ -14226,31 +14286,31 @@
     </row>
     <row r="274" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B274" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="B274" s="2" t="s">
+      <c r="C274" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="D274" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="E274" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="C274" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="D274" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="E274" s="2" t="s">
+      <c r="F274" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="F274" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="G274" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H274" s="2" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="I274" s="2" t="s">
-        <v>867</v>
+        <v>863</v>
       </c>
       <c r="J274" s="2">
         <v>1</v>
@@ -14265,7 +14325,7 @@
         <v>19</v>
       </c>
       <c r="N274" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O274" s="2" t="s">
         <v>23</v>
@@ -14276,7 +14336,7 @@
         <v>160</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>13</v>
@@ -14287,13 +14347,13 @@
       <c r="E275" s="2"/>
       <c r="F275" s="2"/>
       <c r="G275" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="H275" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I275" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="H275" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="I275" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="J275" s="2">
         <v>0</v>
@@ -14308,7 +14368,7 @@
         <v>19</v>
       </c>
       <c r="N275" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O275" s="2" t="s">
         <v>23</v>
@@ -14316,10 +14376,10 @@
     </row>
     <row r="276" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>13</v>
@@ -14330,13 +14390,13 @@
       <c r="E276" s="2"/>
       <c r="F276" s="2"/>
       <c r="G276" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H276" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="I276" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="H276" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="I276" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="J276" s="2">
         <v>0</v>
@@ -14351,7 +14411,7 @@
         <v>19</v>
       </c>
       <c r="N276" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O276" s="2" t="s">
         <v>23</v>
